--- a/jme_ai/tb_gpt_output.xlsx
+++ b/jme_ai/tb_gpt_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,929 +477,6228 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1717758142.10313</t>
+          <t>1721733318.34744</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O cliente Pedro está tentando realizar uma atualização no banco de dados no mercado, porém está enfrentando um erro durante o processo.</t>
+          <t>O cliente não consegue excluir um bônus de recebimento após abrir contagem.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fernando, o representante do suporte técnico, pediu para Pedro conectar em um determinado sistema. Ele não sabia exatamente qual era o problema, então entrou em contato com a equipe de Artismo para obter mais informações sobre como resolver o problema.</t>
+          <t>O atendente informou que a exclusão do bônus não é permitida durante o processo de contagem e sugeriu que o cliente explique a situação ao pessoal de logística.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Processo</t>
+          <t>Tipo de problema: (Processo).</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Identificação do problema: O tempo não está claro na transcrição.
-   Resolução: A resolução ainda estava em andamento no final da chamada.</t>
+          <t>Tempo gasto: Identificação do problema - cerca de 20 minutos; Resolução - cerca de 10 minutos.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Não houve sugestões ou feedbacks específicos do cliente durante a ligação.</t>
+          <t>O cliente não deixou sugestões ou feedback específicos.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>NÃO. A solução estava em processo, com Fernando esperando uma resposta da equipe de Artismo.</t>
+          <t>O problema não foi completamente resolvido, mas o atendente orientou como proceder.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1717760236.10380</t>
+          <t>1721733437.34748</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>O cliente estava com dúvidas em como criar um usuário e senha para acesso ao sistema Sysmo Mobiler.</t>
+          <t>O cliente Leonardo está com uma dúvida sobre integrações automáticas que não estão sendo realizadas com o sistema de tesouraria.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O atendente orientou o cliente a acessar a opção "usuários" nos módulos, no administrador. Indicou que o cliente pode definir uma nova senha e um novo usuário para o colega que irá utilizá-lo. Orientou que o cliente confirme a senha e determine quais serão as permissões desse novo usuário.</t>
+          <t>O atendente Igor sugere que o cliente envie um documento de exemplo para que eles possam validar e configurar as integrações necessárias.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cadastro.</t>
+          <t>Tipo de problema: Configuração.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Não é possível determinar o tempo gasto em cada etapa apenas com a transcrição.</t>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: cerca de 3 minutos (do início até o momento em que o cliente expõe sua dúvida).
+   - Resolução: cerca de 6 minutos (do momento em que o atendente sugere enviar um documento até o fechamento da ligação).</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Não, o cliente pareceu estar satisfeito com a resolução dada pelo atendente.</t>
+          <t>O cliente solicita um retorno rápido sobre a situação, pois há integrações que precisam ser feitas manualmente.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SIM.</t>
+          <t>O problema não foi resolvido durante a ligação, mas o cliente irá abrir um chamado para encaminhar a situação.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1717760412.10386</t>
+          <t>1721735059.34780</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A cliente Josiane Brunetto relatou que a tela ficou pequena após uma manipulação e ela não conseguiu mais ajustar o tamanho.</t>
+          <t>Descrição do Problema: O cliente está enfrentando dificuldades com um programa no Scantec, especificamente com um biscoito na promoção que não está sendo aceito pelo sistema.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>João, o técnico, pediu acesso remoto para ajustar o tamanho da tela. O acesso foi feito via InDesk através do código fornecido "4599.03219".</t>
+          <t>Descrição da Solução: O atendente orientou o cliente a selecionar a opção correta para ser transferido ao setor comercial para melhor assistência.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Tipo de problema: Erro de Sistema.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A transcrição da ligação não fornece detalhes suficientes para fornecer uma estimativa do tempo gasto na identificação do problema e na resolução.</t>
+          <t>Tempo gasto em cada etapa: A identificação do problema parece ter levado cerca de 15 minutos, e a resolução requer transferência para outro departamento, sem tempo específico registrado para resolução.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Não há feedback ou sugestões do cliente na transcrição.</t>
+          <t>Alguma sugestão ou feedback do cliente: O cliente mencionou que já havia tentado resolver o problema anteriormente e expressou insatisfação com a solução.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>O problema foi resolvido? Não, o problema não foi resolvido, pois o cliente ainda precisa de assistência adicional.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1717760437.10388</t>
+          <t>1721735376.34788</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A cliente Bruna, do Mercado Crespi, precisava realizar uma atualização de carga completa da ESS e uma atualização tributária de produtos, mas o botão de importar estava desativado.</t>
+          <t>O cliente deseja instalar o sistema da CISMO em dois computadores na retaguarda.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gustavo, o atendente técnico, explicou a cliente que para importar, é preciso acessar a aba de Atualizações e, posteriormente, escolher a opção importar.</t>
+          <t>O atendente ficou responsável por agendar a instalação para um computador e registrou o contato do cliente para a instalação do segundo computador posteriormente.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Tipo de problema: (Configuração)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O tempo não está especificado na transcrição, mas é possível concluir que a identificação do problema foi rápida, levando apenas o tempo da cliente explicar a situação. Já a resolução parece ter sido igualmente rápida, uma vez que o atendente conseguiu repassar as instruções de como realizar a ação.</t>
+          <t>Tempo gasto: 
+   - Identificação do problema: aproximadamente 3 minutos 
+   - Resolução: o contato foi tomado e a instalação agendada, o que levou cerca de 5 minutos.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Não foi mencionado nenhum feedback ou sugestão por parte da cliente.</t>
+          <t>O cliente comentou sobre a urgência da instalação, mas não deu sugestões específicas.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>O problema não foi completamente resolvido, mas foi agendado para resolução futura.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1717760661.10395</t>
+          <t>1721736989.34813</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O cliente está enfrentando problemas com as notas fiscais que não estão baixando automaticamente no sistema do FotoGram.</t>
+          <t>A cliente está com problemas ao tentar dar carga nas balanças. O processo parece funcionar, mas as balanças não recebem os dados.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O servidor NFE foi reiniciado, que estava aparentemente bloqueado. O cliente foi orientado para aguardar para observar se o problema foi resolvido.</t>
+          <t>O atendente pediu para que a cliente realizasse um procedimento no computador onde está instalado o MGV-7 e fez orientações sobre gerar cargas nos dois PC's para verificar o que está acontecendo.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Erro de Sistema</t>
+          <t>Tipo de problema: Processo.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>- Identificação do problema: Devido à natureza do problema, o tempo de identificação parece ser curto. No entanto, a transcrição da ligação não fornece uma estimativa de tempo precisa.
-   - Resolução: A resolução também parece ser rápida, com o servidor sendo reiniciado quase que imediatamente após a identificação do problema. Mais uma vez, sem tempos exatos fornecidos, não posso fornecer uma estimativa de tempo precisa.</t>
+          <t>Identificação do problema: aproximadamente 15 minutos. Resolução: não foi concluída durante a ligação, mas houve avanços no processo de suporte.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Não há feedback ou sugestão do cliente na transcrição da chamada.</t>
+          <t>A cliente expressou frustração com a situação, mencionando que as balanças não estavam funcionando corretamente.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não é claramente evidente se o problema foi resolvido, pois é necessário algum tempo para observar se as notas fiscais começam a baixar automaticamente após a reinicialização do servidor. Portanto, a resposta é Indeterminada.</t>
+          <t>O problema não foi completamente resolvido durante a ligação; a cliente foi orientada a testar e retornar caso ainda houvesse problemas.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1717761533.10416</t>
+          <t>1721737742.34825</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A atendente Isadora, do Super Lauren 7, sinaliza uma situação em que houve a venda de uma coleira de gato e o preço foi alterado, passando a ser R$74,99. No entanto, o cliente identificou o erro, levou a nota ao supermercado no dia seguinte e o valor foi devolvido a ele diretamente através do caixa. Isadora precisa configurar o ajuste pois o valor está faltando.</t>
+          <t>O cliente, Patrícia, precisa criar um código rápido para vender cigarros no PDV, mas tem dúvidas sobre o processo.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A representante do suporte técnico instruiu Isadora a lançar no fechamento financeiro como se ela tivesse recebido o valor de R$74,99, a fim de ajustar o erro. Além disso, sugeriu a emissão de uma nova nota com o valor correto para a cliente, para evitar o pagamento de impostos mais altos por causa da saída de produto com valor errado. No fechamento financeiro, a atendente deveria inserir o valor que foi devolvido à cliente, para evitar qualquer tipo de quebra.</t>
+          <t>O atendente orientou a cliente sobre como cadastrar o código rápido, explicando que deve-se usar o número da tecla correspondente e que não é necessário cadastrar um código de barras.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Processo</t>
+          <t>Tipo de problema: Cadastro.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Identificação do problema: Considerando a transcrição, não é possível especificar o tempo exato gasto na identificação do problema.
-     Resolução: O mesmo se aplica para a resolução, não é possível identificar o tempo exato de acordo com a transcrição fornecida.</t>
+          <t>Tempo gasto:
+   - Identificação do problema: 10 minutos.
+   - Resolução: 15 minutos.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Não há feedback ou sugestão direta do cliente na transcrição.</t>
+          <t>O cliente mencionou que não sabia como alguns procedimentos eram feitos, especialmente em relação ao cadastro de produtos sem código de barras.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>Sim, o problema foi resolvido. A cliente recebeu as orientações necessárias.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1717764444.10485</t>
+          <t>1721738733.34851</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O cliente estava enfrentando dificuldades para fazer a entrada de uma nota de patrimônio. O valor final da nota estava fechando errado.</t>
+          <t>Descrição do Problema: O cliente, Leonardo do Mixcenter, está enfrentando dificuldades com a configuração do e-mail no sistema B2C, onde não está enviando e-mail de recuperação de senha.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Após ter acesso ao sistema do cliente, foi verificado que o valor do IPI estava sendo somado incorretamente, fazendo a nota ficar com um valor acima do correto. A solução foi ajustar o valor para que a nota fechasse corretamente.</t>
+          <t>Descrição da Solução: O atendente sugeriu usar um e-mail do Gmail para a recuperação, pois funciona melhor em aplicações web, em vez de usar o domínio próprio do cliente.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Tipo de problema: Configuração</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A ligação é bastante longa e confusa, porém, a identificação do problema durou cerca de 30 minutos e a resolução mais 20 minutos.</t>
+          <t>Tempo gasto em cada etapa: Identificação do problema: 4 minutos; Resolução: 3 minutos.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Não há nenhuma sugestão ou feedback explícito do cliente na transcrição dada.</t>
+          <t>Alguma sugestão ou feedback do cliente: O atendente sugeriu criar um e-mail no Gmail para melhor funcionalidade.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>O problema foi resolvido? Não foi resolvido na ligação; o atendente apenas ofereceu uma sugestão.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1717764600.10494</t>
+          <t>1721738757.34854</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>O cliente relatou que estava tendo uma dificuldade na submissão de vendas para fazer o fechamento do caixa. Quatro Pontos de Venda (PDVs) não foram atualizados com as vendas.</t>
+          <t>O cliente teve problemas ao tentar fazer uma nota de devolução pelo bônus, pois a nota não restaurou após ser cancelada.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O representante de suporte constatou que o sistema do cliente estava travado, por isso não processou as vendas do dia anterior. Após reiniciar o sistema, as vendas foram atualizadas corretamente.</t>
+          <t>O atendente orientou o cliente que, no caso de devolução do bônus, a nota não volta automaticamente. Ele deve criar uma nova nota de devolução manualmente, referenciando a anterior.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Erro de Sistema.</t>
+          <t>Tipo de problema: Processo.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>• Identificação do problema: aproxidamente 3 minutos.
-   • Resolução: aproximadamente 2 minutos.</t>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 5 minutos. Resolução - aproximadamente 3 minutos.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Não foi mencionado nenhuma sugestão ou feedback do cliente durante a ligação.</t>
+          <t>O cliente agradeceu e não fez sugestões adicionais.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SIM.</t>
+          <t>Sim, o problema foi resolvido com a orientação do atendente.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1717764601.10495</t>
+          <t>1721738844.34857</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O cliente estava digitando uma nota de devolução e durante esse processo houve uma queda de energia que resultou na nota ficando trancada no sistema.</t>
+          <t>O cliente está com dificuldade em emitir um relatório de produtos sem movimentação nos últimos 30 dias. O relatório apresenta muitos itens, incluindo produtos de 2021.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O atendente da JME sugeriu uma atualização que libera um botão de desconectar usuário que auxilia no desbloqueio da nota trancada no sistema. A nota foi desbloqueada durante a ligação.</t>
+          <t>O atendente sugere ajustar a configuração do relatório, incluindo a ordenação por dias sem saída e limitações para focar apenas nos produtos que estão em estoque.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Erro de Sistema</t>
+          <t>Tipo de problema: Configuração.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A transcrição não fornece informações suficientes para determinar o tempo gasto em cada etapa do atendimento.</t>
+          <t>Tempo gasto: 
+   - Identificação do problema: 15 minutos.
+   - Resolução: 20 minutos.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>O atendente sugeriu ao cliente que, para evitar tal problema no futuro, seria ideal realizar uma atualização do sistema que adiciona uma funcionalidade de desconectar usuário.</t>
+          <t>O cliente menciona que o gerente pediu o relatório e busca informações sobre produtos que estão parados.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>Sim, o problema foi resolvido com a orientação para configurar o relatório adequadamente.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1717764860.10501</t>
+          <t>1721738918.34860</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O cliente está preocupado com uma discrepância de valores entre a nota fiscal e o boleto. O valor do boleto está maior do que o valor da nota, sem razões claras como encargos ou multas para explicar a diferença.</t>
+          <t>Descrição do Problema: O cliente está enfrentando dificuldades para configurar uma senha de app no Gmail para uso em uma aplicação.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O possível motivo para essa discrepância pode ser um erro humano no momento da digitação do valor ao gerar o boleto. Como solução, foi sugerido ao cliente monitorar a situação e, em caso de repetição do problema, emitir uma nota de teste para verificar se é realmente possível alterar valores e se isso foi a causa do problema. Também foi orientado que o cliente exclua o documento com erro no financeiro, e emita o boleto novamente.</t>
+          <t>Descrição da Solução: O atendente orienta o cliente a criar um e-mail genérico no Gmail e ativar a verificação em duas etapas. Em seguida, deve-se acessar a configuração da conta para gerar uma senha de app para usar no SISMO.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Processo</t>
+          <t>Tipo de problema: Configuração.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A transcrição da ligação não detalha o tempo gasto em cada etapa.</t>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: cerca de 10 segundos (do início até a explicação da necessidade da senha de app).
+   - Resolução: cerca de 1 minuto (explicação completa sobre como criar o e-mail e a senha de app).</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Não, o cliente não forneceu feedback ou sugestões específicas.</t>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não deu feedback específico, mas mostrou disposição para seguir as instruções.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SIM, uma possível solução foi encontrada e orientações foram repassadas para o cliente.</t>
+          <t>O problema foi resolvido? Não completamente, mas o cliente ficou com as direções claras para resolver sua situação.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1717765089.10507</t>
+          <t>1721739084.34862</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>O problema era que a máquina de PDV 5 do cliente estava indicando que não tinha conexão com o servidor, o que estava impedindo a realização de transações com cartão e fixo.</t>
+          <t>O cliente está com dificuldades para cadastrar um endereço diferente no sistema de estoque, pois está recebendo um erro ao tentar fazer o cadastro.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A solução envolveu primeiro a verificação de que a máquina estava conectada à Internet, o que foi confirmado. A sugestão então foi de que o cliente abrisse um site para verificar o funcionamento, o que não foi possível no sistema usado pelo cliente. O suporte técnico então identificou que o problema era potencialmente devido ao IP da máquina estar duplicado ou ter sido alterado. O suporte técnico então trabalhou para resolver o problema, eventualmente conseguindo fazer a máquina funcionar novamente.</t>
+          <t>O atendente sugeriu que o cliente validasse o procedimento com a equipe comercial, pois o problema parece estar ligado ao formato do endereço que não corresponde à máscara adequada. O cliente foi orientado a selecionar a opção correta para falar com o pessoal do comercial.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Configuração.</t>
+          <t>Tipo de problema: Cadastro.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Baseando-nos na transcrição, é difícil determinar o tempo exato gasto em cada etapa. No entanto, a identificação do problema parecer ter sido relativamente rápida, enquanto a resolução do problema parece ter demorado mais tempo devido à necessidade de fazer várias tentativas para corrigi-lo.</t>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 6 minutos. Resolução - 5 minutos.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>O cliente expressou frustração com o fato de que o sistema parecia falhar com mais frequência durante períodos de pico de atividade.</t>
+          <t>O cliente mencionou que acredita que o problema seja realmente com o comercial, mas não fez sugestões ou feedbacks diretos.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SIM.</t>
+          <t>O problema não foi resolvido durante a ligação. O cliente foi orientado a contactar o setor adequado para solucionar a questão.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1717766223.10541</t>
+          <t>1721739833.34889</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O cliente Gustavo da Gerard Farroupilha está com dúvidas sobre como configurar o PDV para que apenas um usuário possa fazer o cancelamento.</t>
+          <t>O cliente está com problemas na impressão das etiquetas. A descrição do produto não está saindo completa.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Foi indicado ao cliente que ele poderia alterar a permissão no cadastro dos operadores atribuindo a permissão de gerente ou fiscal para o operador que ele deseja que possa realizar o cancelamento. Foi também explicado como acessar o módulo do PDV no Monitor Veras para ajustar as configurações de autorização de acesso.</t>
+          <t>O atendente sugeriu que o cliente trabalhe na descrição dos produtos para ajustar o tamanho, mas informou que a mudança no programa de emissão das etiquetas poderia ser necessária para corrigir a questão. Agendaram uma avaliação futura para verificar a demanda.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Tipo de problema: Configuração.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>- Identificação do problema: cerca de 2 minutos (até o momento em que o cliente explica a questão do cancelamento no PDV).
-   - Resolução: cerca de 5 minutos (intercalado com explicações do atendente).</t>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 15 minutos.
+   - Resolução: Não foi resolvido na ligação, mas agendaram um retorno para a próxima semana.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Não, o cliente não deu nenhuma sugestão ou feedback.</t>
+          <t>O cliente ficou preocupado com a necessidade de mudar as descrições no cadastro, mas estava satisfeito com a proposta de agendar um retorno para solucionar a questão.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SIM
-O cliente não reportou nenhuma dificuldade em realizar a alteração sugerida pelo atendente e não indicou a necessidade de suporte adicional.</t>
+          <t>O problema não foi resolvido na ligação; ficou agendada uma nova conversa para a próxima semana.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1717767303.10563</t>
+          <t>1721740119.34901</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A cliente Maria do supermercado "Ideal" entrou em contato com o suporte técnico Gustavo da Sysmo Sistemas para relatar um problema com o SPED. De acordo com a contabilidade da empresa, estava faltando um arquivo de estoque, mais especificamente o arquivo do estoque de sorvetes.</t>
+          <t>O cliente está com dificuldade para emitir uma nota fiscal porque o sistema informa que já existe um pedido relacionado, mas ele não consegue referenciar os itens para emitir.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gustavo sugeriu enviar um manual explicando como gerar e configurar o arquivo de estoque. Ele enviou o manual para o email informado pela Maria.</t>
+          <t>O atendente orientou o cliente a tentar emitir novamente a nota e, ao final, confirmou que a emissão foi bem-sucedida.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(Configuração)</t>
+          <t>Tipo de problema: Erro de Sistema.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A transcrição não permite um cálculo exato do tempo. Identificar o problema parece ter ocorrido rapidamente, enquanto o processo de resolução incluiu a obtenção do endereço de e-mail da cliente e o envio do manual, o que provavelmente levou alguns minutos.</t>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 4 minutos.
+   - Resolução: Aproximadamente 5 minutos.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Não há feedback direto do cliente nesta transcrição. No entanto, seu tom é agradecido e ela se compromete a retornar em caso de maiores problemas.</t>
+          <t>O cliente se mostrou satisfeito, mencionando que "deu certo a princípio" e agradecendo ao atendimento.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(NÃO). Embora a solução proposta possa resolver o problema, é necessário confirmar isso com o cliente após ter seguir a orientação provida no manual enviado.</t>
+          <t>Sim, o problema foi resolvido.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1717767911.10572</t>
+          <t>1721740306.34906</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O cliente, Marco do Super Colômbio, está enfrentando problemas com a atualização de alguns itens de uma promoção que aceitaram. Há uma discrepância entre o número de itens atualizados e o número real de itens.</t>
+          <t>O problema é que não estão entrando cargas nas balanças do supermercado.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O representante da JME solicita e obtém o acesso para verificar o problema. Após a análise, ele identificou que o problema é com a Scantec, que é um terceiro. Ele instrui o cliente a entrar em contato com eles para resolver o problema.</t>
+          <t>A solução proposta inclui verificar o IP de conexão e importar a carga manualmente. Foi sugerido que a carga automática não estava funcionando corretamente e que ajustes seriam necessários na configuração.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(Erros do Sistema)</t>
+          <t>Tipo de problema: Configuração.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>- Identificação do problema: Baseado na transcrição, não é possível determinar o tempo gasto especificamente, mas foi em partes significativas da chamada.
-  - Resolução: O problema não foi resolvido e o cliente foi aconselhado a se comunicar com o terceiro (Scantec).</t>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: aproximadamente 10 minutos.
+   - Resolução: cerca de 20 minutos.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Não houve feedback direto ou sugestões do cliente durante a chamada.</t>
+          <t>O cliente sugeriu que a carga deveria estar indo para o local correto e que o IP de conexão poderia estar errado.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(NÃO) O representante do serviço aos usuários da JME identificou que o problema provém de uma terceira parte (Scantec). Portanto, o problema ainda não foi resolvido e o cliente foi instruído a entrar em contato com a Scantec.</t>
+          <t>O problema não foi completamente resolvido, mas foram feitos progressos, e o cliente foi orientado a testar as soluções.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1717767936.10574</t>
+          <t>1721740454.34913</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O cliente, Igor Gustavo da ShockStore, percebeu uma inconsistência entre o valor reportado em seu sistema interno para as vendas do dia 31/05 e o valor que está sendo exibido no CFAZ, com o valor interno sendo maior. Ele precisa dos arquivos XML das NFCs (Nota Fiscal do Consumidor) desse dia para fazer uma verificação detalhada.</t>
+          <t>Problema: O cliente, Thaís, relatou que não consegue fechar o PDV desde o dia 3.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>João da JTMS Serviços ofereceu assistência para gerar os XMLs dos cupons do dia em questão diretamente dos servidores da ShockStore. Ele instruiu o cliente sobre como fazer essa extração através do programa que já está instalado na máquina cliente.</t>
+          <t>Solução: O atendente abriu um chamado para investigar o problema e prometeu um retorno.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(Processo)</t>
+          <t>Tipo de problema: Erro de Sistema.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A ligação transcrita não fornece informações precisas sobre o tempo gasto em cada etapa.</t>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 25 minutos. Resolução - ainda não resolvido.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Não foram mencionados feedbacks ou sugestões por parte do cliente durante a ligação.</t>
+          <t>O cliente não fez sugestões ou feedback específico durante a chamada.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(SIM ou NÃO) 
-SIM. O analista de suporte técnico foi capaz de ajudar o cliente a gerar os arquivos XML que ele precisa para verificar a diferença no valor das vendas. No entanto, a ligação transcrita termina antes que o cliente possa confirmar se a geração do XML foi bem-sucedida.</t>
+          <t>O problema não foi resolvido durante a ligação; um chamado foi aberto para análise.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1717768109.10578</t>
+          <t>1721740618.34928</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>O cliente precisava gerar XMLs do dia 31/5 da Empresa 1. Teve dificuldades para extrair essas informações do sistema.</t>
+          <t>O cliente estava com problemas para recuperar a senha de um e-mail configurado no sistema B2C.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Foi feito o acesso remoto na máquina do cliente e instruído o processo de extração dos XMLs. Os XMLs são extraídos direto da base da Sysmo, separados por empresa, dia e PDV. Foi criado um atalho para o programa de extração na área de trabalho do cliente e explicado que caso precise extrair esses dados novamente, basta entrar no programa, inserir a data e a empresa, e os dados serão gerados na pasta do extractor.</t>
+          <t>A solução envolveu ajudar o cliente a configurar corretamente as informações do servidor e verificar a senha do aplicativo, ajustando algumas configurações.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Processo</t>
+          <t>Tipo de problema: Configuração.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Identificação do problema (4 minutos), Resolução (6 minutos)</t>
+          <t>Tempo gasto: 
+   - Identificação do problema: Aproximadamente 12 minutos.
+   - Resolução: Aproximadamente 15 minutos.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Não houve sugestão ou feedback específico do cliente.</t>
+          <t>O cliente mencionou que odeia coisas genéricas e queria que as configurações funcionassem corretamente.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SIM.</t>
+          <t>Sim, o problema foi resolvido.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1717768745.10597</t>
+          <t>1721741376.34939</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>O cliente estava tendo problemas em um dos pontos de venda (PDV) da Loja 3, notando especificamente que o PDV 11 estava apresentando um problema com desajustes em sua máquina de cartão. Além disso, foi notado que um PDV 12 (que não existe fisicamente) estava registrado no sistema.</t>
+          <t>Descrição do Problema: Cliente pediu ajuda para ajustar alíquotas erradas no bolsamento na saída de produtos.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O técnico identificou que a máquina de cartão recentemente formatada estava sem o software ATP, que deveria ser reinstalado. Ele afirmou que realizaria a instalação remotamente após a ligação.</t>
+          <t>Descrição da Solução: Atendente sugeriu que o cliente entre em contato com a equipe fiscal para resolver a questão.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Tipo de problema: Configuração.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Não é possível determinar o tempo específico gasto em cada etapa com base na transcrição.</t>
+          <t>Tempo gasto: 
+   - Identificação do problema: 12 segundos (de 35s a 47s).
+   - Resolução: 1 minuto e 10 segundos (de 57s a 127s).</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Não houve sugestão ou feedback direto do cliente, embora ele tenha solicitado a resolução do problema após a ligação.</t>
+          <t>Alguma sugestão ou feedback do cliente: Cliente agradeceu pela orientação.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A transcrição sugere que o técnico tem a expectativa de resolver o problema após a chamada, reinstalando o software necessário. No entanto, a transcrição não confirma explicitamente se o problema foi finalmente resolvido.</t>
+          <t>O problema foi resolvido? Não, o cliente precisará ligar para a equipe fiscal.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1717769557.10608</t>
+          <t>1721741433.34944</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A cliente relatou que o sistema está apresentando lentidão. A equipe clica e o sistema demora para aceitar os comandos e abrir as ações requisitadas. Quando o sistema responde, todas as ações são executadas de uma vez, o que causa transtornos.</t>
+          <t>O cliente tinha dúvidas sobre a criação de fichas técnicas no sistema para padaria, que estavam gerando registros negativos.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Após a análise via ligação, foi sugerido que o problema poderia estar na VPN ou na rede da empresa do cliente. O suporte técnico orientou que a cliente entrasse em contato com a empresa WF, responsável pelo servidor do cliente, para verificar possível lentidão na VPN ou na rede.</t>
+          <t>O atendente sugeriu ao cliente verificar o cadastro e avaliar se as entradas estavam corretas. Também comentou sobre a importância de usar o rendimento adequado no processo de produção.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Tipo de problema: (Cadastro)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Não é possível mensurar o tempo específico através da transcrição, porém nota-se que o atendimento foi demorado por envolver a descrição minuciosa do problema e testes conduzidos pelo suporte técnico.</t>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 20 minutos. Resolução - aproximadamente 15 minutos.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Não houve feedback específico ou sugestões por parte do cliente.</t>
+          <t>O cliente mencionou que as fichas estavam negativas e que suspeitava de erros no cadastro.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>NÃO. A resolução do problema está pendente, pois a cliente foi aconselhada a entrar em contato com a WF, a empresa que cuida dos servidores deles.</t>
+          <t>O problema não foi completamente resolvido, pois o cliente ainda precisa revisar os cadastros e entradas.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1717771131.10647</t>
+          <t>1721743257.34998</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O cliente estava enfrentando um problema com um boleto que estava tentando conciliar com o extrato, mas não estava conseguindo.</t>
+          <t>Descrição do Problema: O cliente, Luís, relata que o sistema está apresentando problemas com o cadastro de locais, resultando em saídas de produto sem endereço de estoque.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Através da análise, percebeu-se que o boleto não estava integrado com a tesouraria, o que era o motivo pelo qual ele não estava aparecendo no extrato. A solução proposta foi estornar a baixa, alterar a origem do boleto e fazer a baixa novamente para que ele ficasse integrado.</t>
+          <t>Descrição da Solução: O atendente sugere alterar os cadastros de produtos e locais, além de verificar relatórios para entender a situação. O cliente decide não fazer alterações por enquanto, pois os locais existentes atendem suas necessidades.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Tipo de problema: Processo.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A ligação não fornece informações sobre o tempo exato gasto em cada etapa. No entanto, parece que a maior parte do tempo foi gasto na identificação do problema.</t>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 15 minutos.
+   - Resolução: O cliente optou por não realizar mudanças, então não houve tempo de resolução efetivo.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Não há sugestões específicas ou feedback do cliente, mas o cliente pareceu satisfeito com a solução proposta.</t>
+          <t>Alguma sugestão ou feedback do cliente: O cliente indica que não quer mais mexer no sistema por enquanto e que os locais atuais atendem suas necessidades.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>O problema foi resolvido? Não, o cliente decidiu deixar o problema em aberto por ora, pois está satisfeito com a configuração atual.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1717777754.10684</t>
+          <t>1721744550.35034</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O cliente menciona que está tendo problemas com a exibição do saldo do convênio. Ele informa que após um transacionador gastar parte do saldo, o valor total original retorna no dia seguinte, em vez de diminuir.</t>
+          <t>Descrição do Problema: O computador da cliente se desligou, trancando o acesso do usuário ao sistema Bono.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Devido ao tipo de transcrição apresentada, não é clara a solução para o problema. É recomendado verificar o funcionamento do sistema de convênio e suas configurações de saldo.</t>
+          <t>Descrição da Solução: O atendente orientou a cliente a se conectar ao pessoal comercial para liberar o usuário.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Possivelmente (Erro de Sistema), mas pode também ser um problema de (Configuração) dependendo de como o sistema está configurado para gerenciar o saldo.</t>
+          <t>Tipo de problema: (Erro de Sistema)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A transcrição não informa os tempos precisos gastos em cada etapa.</t>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: 15 segundos
+   - Resolução: 1 minuto</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nenhum feedback ou sugestão clara foi fornecida durante a chamada transcrita.</t>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não deu feedback específico, apenas agradeceu no final.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Não há informação suficiente na transcrição para determinar se o problema foi resolvido.</t>
+          <t>O problema foi resolvido? Não foi resolvido na ligação, mas o atendente direcionou para uma possível solução.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1717780507.10738</t>
+          <t>1721825851.35647</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A atendente Débora, do Kramer, menciona um problema com um caixa que está funcionando de forma inconstante. O equipamento alternadamente lê os produtos e depois não consegue ler nada, tendo problemas de "patinação" e travamentos.</t>
+          <t>O cliente não consegue acessar todas as empresas na hora de criar promoções, apesar de ter acesso a elas. A tela de acesso aparece diferente para ele e para uma colega.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O técnico Hector indicou que o problema parece estar atrelado ao próprio equipamento. Ele menciona que irá dar uma olhada na situação, porém não é especificada qual será a ação exata para solucionar o problema.</t>
+          <t>O atendente explicou que a diferença de acesso pode ser devido a permissões de usuário. Ele se comprometeu a verificar a configuração e a possibilidade de resolver o problema.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(Erro de Sistema)</t>
+          <t>Tipo de problema: (Configuração)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Não foi possível identificar o tempo gasto em cada etapa a partir da transcrição fornecida.</t>
+          <t>Tempo gasto: Identificação do problema - 5 minutos; Resolução - 10 minutos. (Total: 15 minutos)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>No trecho transcritão não há feedback ou sugestão por parte do cliente.</t>
+          <t>O cliente mencionou que não consegue acessar as promoções e que a questão das permissões está atrapalhando seu trabalho.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(NÃO) Só temos conhecimento de que o técnico irá verificar o problema, porém não há confirmação de resolução na transcrição apresentada.</t>
+          <t>O problema não foi resolvido na ligação. O atendente afirmou que iria verificar a questão.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1717781498.10768</t>
+          <t>1721752351.35110</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O problema relatado pela Clara, do CPTA, é que ao emitir notas com cupom da Dance, o nome que aparece é o nome fantasia (Super Peato) em vez da razão social (Alvorada Abastecedora de Alimentos LTDA).</t>
+          <t>O cliente está enfrentando problemas ao cadastrar novos rendimentos, já que alguns produtos apresentam saldo negativo, impedindo o seu cadastro.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gabriel, o atendente, propôs que a melhor solução seria criar um logotipo com a razão social da empresa e inclui-lo no espaço em branco disponível. Entretanto, foi detectado que as notas antigas ainda apresentariam o nome fantasia. Para as notas futuras, o nome seria atualizado corretamente.</t>
+          <t>O atendente sugere excluir os rendimentos, ajustar o estoque, rodar um relatório para corrigir divergências e, em seguida, cadastrar os rendimentos novamente.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Tipo de problema: Cadastro.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A transcrição não fornece dados concretos sobre o tempo gasto na identificação e na resolução do problema.</t>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: Aproximadamente 10 minutos.
+   - Resolução: Aproximadamente 15 minutos.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Clara sugeriu que o problema poderia ser analisado por outras pessoas para ver se existe alguma coisa que é fixa e não pode ser alterada.</t>
+          <t>O cliente menciona que precisa revisar os produtos negativados e que será necessário acompanhar as movimentações futuras para evitar novos problemas.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Parcialmente. Gabriel explicou que para as notas futuras, o nome seria atualizado corretamente, mas as notas antigas ainda apresentariam o nome fantasia. Portanto, a solução atinge apenas notas futuras e não as antigas.</t>
+          <t>O problema não foi totalmente resolvido, mas o cliente recebeu orientações para solucioná-lo.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1717781981.10779</t>
+          <t>1721753293.35129</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O cliente está tentando devolver uma nota fiscal de um item, mas não consegue encontrar a figura fiscal adequada para encaixá-la, pois a CFT é 0,51 e a alíquota é 17, reduzida a 12.</t>
+          <t>O cliente, Giliardo, relatou que seu colega chefe de caixa não consegue encontrar cupons necessários para gerar uma nota de devolução no sistema. Alguns cupons aparecem, enquanto outros não, obrigando-o a acessar uma tela diferente.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A solução foi criar uma nova figura fiscal com as características necessárias para a devolução do item. O operador orientou o cliente a mudar a tributação do produto para 12 e 51, sendo a alíquota e o diferimento, e indicou que deveria ser criado um novo registro com esses valores.</t>
+          <t>O atendente informou que a dúvida de Giliardo deve ser direcionada ao setor comercial, pois o problema pode estar relacionado a como os cupons estão sendo gerados ou referenciados.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Tipo de problema: Processo.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A ligação não fornece tempo específico para cada etapa.</t>
+          <t>Tempo gasto: Identificação do problema: aproximadamente 7 minutos. Resolução: não houve uma resolução conclusiva na chamada.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Não, a cliente agradeceu pela ajuda e não deu nenhum feedback ou sugestão.</t>
+          <t>O cliente mencionou que gostaria de ajudar seu colega, mas sua dúvida não foi totalmente esclarecida durante a ligação.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SIM, a nova figura fiscal foi criada e o cliente foi capaz de prosseguir com a devolução da nota fiscal.</t>
+          <t>O problema não foi resolvido, pois a ligação foi encaminhada para outro setor e não houve solução imediata.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>90</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1721755926.35201</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>O cliente, Camila, precisa instalar o software CISME em cinco computadores na retaguarda.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>O atendente sugere que Camila use o Anydesk para ter acesso aos computadores e pede a ela para passar os dados de todos os PCs para auxiliar na instalação.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: aproximadamente 10 minutos.
+   - Resolução: aproximadamente 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>O cliente não apresentou sugestões ou feedback específico.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido, pois Camila ainda precisa passar os dados e finalizar a instalação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>91</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1721755993.35207</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>O cliente não consegue emitir uma nota porque o servidor está fechado.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>O atendente verificou o log e identificou que o problema era falta de memória. O cliente mencionou que o responsável pela autorização ainda não havia falado com a Bruna.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tempo gasto: 
+   - Identificação do problema: 42 segundos (do início ao identificador do problema).
+   - Resolução: 5 segundos (do momento da identificação até a confirmação de que o problema é por falta de memória).</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>O cliente sugeriu que se a situação não fosse resolvida rapidamente, poderia complicar a situação, especialmente se fosse no fim de semana.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido durante a chamada, o cliente ainda precisa que a autorização seja dada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>92</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1721756636.35232</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>O cliente precisa de ajuda para fechar o estoque do mês passado e quer evitar que outros usuários alterem documentos.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>O atendente explicou como fazer o fechamento mensal do estoque, detalhando os passos necessários, a seleção de períodos e a importância de revisar notas antes de fechar.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 5 minutos; Resolução - 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que está se familiarizando com os processos, pois não participou da implantação.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido com as instruções fornecidas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>93</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1721757480.35263</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>O cliente tem dificuldade em exportar o Spade Fiscal. Ao tentar, nada aparece na pasta local que foi criada.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>O atendente orientou que a pasta de exportação precisava ser corretamente configurada. Após verificar, foi identificado que a pasta não estava criada. Com isso, o cliente conseguiu gerar os dados na pasta correta.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tempo gasto: 
+   - Identificação do problema: 5 minutos.
+   - Resolução: 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>O cliente pareceu satisfeito e agradeceu no final, sem sugestões específicas.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>94</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1721757875.35270</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente queria configuração para rastrear alterações de preço e saber quem fez essas alterações no sistema.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orientou o cliente a acessar as áreas "Comercial, Precificações e Promoções" no sistema onde é possível ver quem alterou o preço, junto com o horário e o programa utilizado.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: 10 segundos.
+   - Resolução: 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não deu feedback específico, mas expressou satisfação ao final da ligação.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>95</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1721758225.35280</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>O cliente precisa emitir uma contranota, mas está tendo dificuldades em encontrar a opção no sistema e não entende como funciona a parte fiscal do software.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente a entrar em contato com o suporte comercial para questões relacionadas à emissão da contranota. Ele também forneceu informações sobre como lançar a nota fiscal eletrônica e como gerenciar as notas emitidas no sistema.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tempo gasto na identificação do problema: aproximadamente 6 minutos. Tempo gasto na resolução: aproximadamente 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que achava estranho a emissão da contranota e que geralmente emite notas do produtor rural com CPF, questionando o processo na situação atual.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido, mas o cliente recebeu orientações para contatar outro suporte e obteve informações úteis sobre o sistema.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>96</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1721758375.35285</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>O problema é que o cliente, Katiúcia, informou que o sistema está desatualizado, utilizando uma versão anterior do software.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A solução proposta foi que Katiúcia deveria abrir um chamado para marcar a atualização do sistema, que seria feita pela equipe responsável. O atendente explicou como solicitar a atualização e sugeriu horários adequados para isso.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Identificação do problema: 12 a 30 segundos. Resolução: 172 a 298 segundos.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>O cliente sugeriu que a atualização fosse feita em um horário menos movimentado para evitar impacto nas operações da empresa.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>O problema ainda não foi resolvido, mas o cliente vai abrir um chamado e aguardar o retorno para marcar o horário da atualização.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>97</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1721758429.35287</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>O cliente precisa atualizar um computador de retaguarda que ficou desatualizado.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>O atendente vai passar a solicitação para a equipe de banco de dados para que a atualização seja feita.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - cerca de 5 minutos; Resolução - não especificado, aguarda repasse para equipe.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que as atualizações de ontem podem ter sido feitas e pediu para deixar mensagens na tela quando algo acabar.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido durante a ligação, pois o atendimento foi encaminhado para outra equipe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>119</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1721826796.35684</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>O cliente precisa de ajuda para lançar CTEs no sistema pela primeira vez.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>O atendente explicou o processo de lançamento, orientou sobre o uso correto do sistema e ajudou o cliente a preencher as informações necessárias.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tempo gasto: 
+   - Identificação do problema: Aproximadamente 10 minutos.
+   - Resolução: Aproximadamente 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>O cliente não fez sugestões ou feedbacks específicos, mas expressou gratidão pela ajuda.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>98</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1721760194.35351</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>O cliente enfrenta um erro ao salvar um nota fiscal na digitação de nota fiscal de recebimento, mencionado como uma duplicação de entrada no banco.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>O atendente pediu para testar novamente, e o cliente informou que precisaria que outra pessoa fizesse isso, pois não era no computador dele. O atendente sugeriu analisar o problema com mais detalhes.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 9 minutos; Resolução - não concluída na ligação, mas o atendimento seguiu para um teste posterior.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que este problema já aconteceu outras vezes e solicitou uma análise mais detalhada.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido durante a ligação, mas houve progresso para identificação do que estava ocorrendo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>99</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1721760786.35362</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente César informou que um teclado não está exibindo informações na tela.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente sugeriu que o cliente aguardasse o retorno do Renan, que estava em atendimento, para resolver a questão. O atendente também coletou o número de telefone do cliente para facilitar o contato.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: 6 minutos (do início até a identificação do problema).
+   - Resolução: Não houve resolução na chamada, apenas encaminhamento para o retorno do suporte.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente mencionou que a nova CPU e a versão usada podem estar causando a falha. Porém, não apresentou feedback adicional.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, o problema não foi resolvido na ligação. O cliente aguarda o retorno do suporte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1721761065.35366</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>O cliente está com dificuldade na configuração do aplicativo Sysmo S1 Mobile.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente a usar o endereço correto do servidor e a verificar o cadastro de usuários no sistema S1.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 5 minutos; Resolução - 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>O cliente não fez sugestões ou deu feedbacks específicos.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido, mas foram fornecidas orientações para configuração.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>101</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1721761271.35378</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente solicitou acesso para montar um relatório das trocas e mencionou que o telefone no mudo está causando quedas na ligação.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente instruíu o cliente sobre como obter o relatório desejado e esclareceu que ele pode filtrar por justificativa se necessário.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 4 minutos (Início até 17).
+   - Resolução: Aproximadamente 10 minutos (17 até 257).</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente deu feedback sobre o problema de queda de ligação ao utilizar o mudo.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, a solicitação do cliente foi atendida com as instruções adequadas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>102</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1721761450.35380</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>O cliente está com dúvida sobre qual relatório usar para visualizar as vendas unitárias de produtos registrados no PDV.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>O atendente explicou que é possível obter o relatório a partir da opção "Transacionadores" e que, ao configurar, é necessário colocar quebra por documento para visualizar os detalhes de cada venda.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tempo gasto: 
+   - Identificação do problema: 5 minutos
+   - Resolução: 10 minutos</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>O cliente não fez sugestão ou feedback específico.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>103</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1721762279.35392</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente está enfrentando um erro ao tentar transmitir uma nota de devolução, que não está sendo identificada no sistema. A numeração da nota pula, como se ela não existisse.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente sugere passar o caso para a equipe do comercial e, posteriormente, para a equipe do fiscal, que poderá ajudar a resolver o erro na transmissão da nota. O atendente também orienta o cliente a verificar a integração e a configuração do sistema.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Erro de Sistema)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: 3 minutos
+   - Resolução: 10 minutos</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não fez sugestões específicas, mas demonstrou preocupação com a falha na transmissão da nota e a dificuldade de encontrá-la no sistema.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, o problema não foi resolvido durante a ligação, mas foi direcionado para as equipes responsáveis para investigação e solução.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>104</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1721762641.35405</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>**Descrição do Problema:** O cliente estava com dificuldades ao realizar pedidos de venda no coletor, onde o campo do vendedor aparecia em branco, impossibilitando a continuidade do processo.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>**Descrição da Solução:** O atendente orientou o cliente a cadastrar um vendedor no sistema e configurou o usuário para sempre puxar o vendedor correto, garantindo que o processo de venda funcionasse adequadamente.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>**Tipo de problema:** Cadastro.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>**Tempo gasto em cada etapa:** 
+   - Identificação do problema: Aproximadamente 15 minutos.
+   - Resolução: Aproximadamente 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>**Alguma sugestão ou feedback do cliente:** O cliente não forneceu sugestões específicas, mas expressou satisfação ao final da ligação, afirmando que a solução estava perfeita.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>**O problema foi resolvido?** Sim.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>105</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1721763354.35420</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>O cliente está enfrentando dificuldades ao tentar inserir dados, recebendo erros como "Duplicate Key Value". Além disso, há um problema ao emitir notas fiscais, onde o sistema indica que não há dados.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>O atendente se comprometeu a abrir um chamado para investigar o erro de inserção que foi mencionado várias vezes e também coletar mais informações sobre o problema da nota fiscal.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 35 minutos (do início da ligação até a descrição final do problema).
+   - Resolução: O atendente ficou cerca de 8 minutos buscando soluções durante a conversa e preparando o chamado.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que o processo de emissão de nota fiscal demora, o que pode ser um feedback para melhoria no sistema.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido na hora. O atendente irá abrir um chamado para investigar e resolver as questões levantadas pelo cliente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>106</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1721764162.35431</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>O cliente está com uma dúvida sobre quem gerou um pedido de transferência da filial para o CD.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>O atendente explicou que não é possível identificar o usuário que gerou o pedido após ele ser movimentado, pois essa informação é sobrescrita pelo último usuário que alterou o pedido.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 2 minutos; Resolução - aproximadamente 3 minutos.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>O cliente não fez sugestões ou feedback específico além de agradecer a explicação.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Não, o problema não foi resolvido, pois a informação desejada não está disponível.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>120</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1721827296.35696</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>O cliente tem dificuldades em endereçar mercadorias de forma manual, causando atrasos na comunicação e separação de pedidos.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>O atendente sugere que o sistema possa notificar automaticamente o separador sobre pedidos liberados para separação, evitando comunicação manual.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 25 minutos; Resolução - 30 minutos.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>O cliente sugere melhorias, como notificações automáticas para separação de pedidos no coletor.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido, mas foram discutidas possíveis soluções e melhorias.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>107</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1721766295.35473</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>O cliente precisa aprender a emitir contranota e está com dificuldades em lançar notas de produtos de consumo que não são cadastrados no sistema.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A solução envolve cadastrar os produtos no sistema para ter controle e facilitar a emissão das notas. O atendente sugeriu criar fichas técnicas para os produtos usados na produção.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - cerca de 10 minutos; Resolução - cerca de 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que o processo de cadastro é trabalhoso, mas entendeu que isso facilitaria o controle de custos e a gestão no futuro.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>O problema foi parcialmente resolvido, com orientações dadas, mas o cliente ainda precisa implementar as sugestões.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>108</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1721819265.35517</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>O cliente relatou que o executável do sistema "sysms1" sumiu e o arquivo está corrompido.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>O atendimento sugere que o problema deve ser direcionado à equipe de banco de dados e pergunta se o cliente tem acesso ao diretório dos executáveis.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 14 segundos; Resolução - Não foi concluída na transcrição.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Não há sugestões ou feedback do cliente na transcrição.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido durante a ligação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>109</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1721819792.35529</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>O cliente, Gustavo, relatou dificuldades na inclusão de produtos via mobile.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>O atendente atualizou informações e confirmou que não havia novidades no servidor. Ele sugeriu que o cliente ligasse novamente se precisasse de mais assistência.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - cerca de 6 minutos; Resolução - aproximadamente 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>O cliente agradeceu a assistência prestada.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido, mas o atendente deu orientações para que o cliente retornasse em caso de mais dificuldades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>110</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1721822227.35560</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente não consegue abrir o software SISMO após uma atualização, aparecendo uma mensagem para continuar ou reiniciar.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente solicitou acesso à máquina do cliente para ajustar a versão do software.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aprox. 6 minutos (início até a compreensão completa do problema pelo atendente).
+   - Resolução: O processo de resolver o problema não foi totalmente finalizado na chamada, mas foi iniciado.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente agradeceu o atendimento.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, o problema ainda estava em andamento, mas o atendimento foi iniciado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1721822304.35563</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente teve dificuldades para instalar o aplicativo de pedidos no celular, que apresentava campos não abertos e problemas no processo de transferência.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente sugeriu verificar e configurar o acesso no celular, limpar o cache do aplicativo e garantir que as permissões estavam dadas. O usuário foi configurado como superusuário e orientado sobre como ajustar as configurações do aplicativo.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: 15 minutos.
+   - Resolução: 20 minutos.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente mencionou que tiveram problemas com a internet e a necessidade de resolver conflitos de conexão.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, após as orientações, o cliente conseguiu operar o aplicativo corretamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>114</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1721822750.35573</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>O cliente precisa de ajuda para emitir uma contranota.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente sobre o processo de emissão da contranota, esclarecendo sobre as configurações necessárias e como utilizar o sistema corretamente.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Processo).</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tempo gasto: 
+   - Identificação do problema: aproximadamente 10 minutos.
+   - Resolução: aproximadamente 25 minutos.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>O cliente sugeriu que o suporte poderia ensinar mais, em vez de apenas resolver os problemas, para que eles não precisassem entrar em contato toda vez que surgisse uma dúvida.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>116</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1721824181.35608</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>O cliente não consegue fazer uma nota de venda e tem dificuldades na emissão de cupons.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>O atendente fez uma integração manual do cupom e orientou o cliente a usar uma função específica no PDV para integração de notas.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 15 minutos. Resolução - aproximadamente 5 minutos para fazer a integração manual e dar instruções.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Não há sugestões ou feedback explícito do cliente na transcrição.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido, pois a integração foi feita e o cliente foi orientado para futuras situações.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>117</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1721825769.35644</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>O cliente, Guilherme, tem dúvida sobre um relatório de estoque atual que apresenta produtos negativos após um inventário.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>O atendente explicou que o problema poderia estar relacionado a duas configurações do inventário e que, para uma solução definitiva, seria necessário encaminhar o chamado para a equipe comercial.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Configuração)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 5 minutos.
+   - Resolução: O atendimento foi aberto, mas a resolução depende da equipe comercial e não foi concluída na ligação.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>O cliente agradeceu e não fez sugestões específicas, apenas mencionou que estava tudo tranquilo.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido durante a ligação; foi apenas encaminhado para que a equipe comercial contate o cliente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>121</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1721827494.35700</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>O cliente está com dificuldade para liberar pedidos entre as filiais, conseguindo apenas visualizar pedidos para a loja cadastrada como CD (Centro de Distribuição).</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>O atendente informou que a situação parece ser uma questão de configuração do WMS (Warehouse Management System) e sugeriu abrir um atendimento para o setor comercial para investigar o problema.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 10 minutos.
+   - Resolução: O atendente sugeriu que um contato do setor comercial fosse feito, mas não havia uma resolução imediata.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>O cliente solicitou que o retorno fosse dado ainda no mesmo dia, se possível, pois estava inscrito em um programa.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido durante a ligação, mas foi aberto um chamado para investigação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>122</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1721829307.35739</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>O cliente precisa fazer a instalação do software F1 em uma máquina que voltou do concerto.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>O atendente pediu acesso à máquina e orientou o cliente a seguir um procedimento para a instalação.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema não está claro, mas a interação parece ter ocorrido rapidamente antes de uma instrução de direcionamento. Não foi registrada uma resolução específica na transcrição.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>O cliente não deu sugestões ou feedbacks claros, apenas agradeceu e se despediu.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido durante a ligação, pois a instalação ainda precisa ser realizada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>123</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1721830289.35755</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>O cliente está com dúvidas sobre como o sistema PDV lida com latas de Brahma que apenas possuem QR Code e não têm código de barras.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>O atendente explica que o PDV não lê QR Codes diretamente, mas que a leitura depende do tipo de leitor utilizado. Sugere que o cliente teste o leitor com um produto e verifique a leitura do QR Code em um bloco de notas.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aprox. 7 minutos.
+   - Resolução: Aprox. 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>O cliente não fez sugestões ou feedbacks explícitos, mas agradeceu ao atendente.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>O problema ainda não foi totalmente resolvido, pois o cliente precisa realizar testes com o leitor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>124</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1721830614.35761</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>O cliente precisa de ajuda para conferir a sugestão de margem por setor, especificamente para o setor de fruteira, e como fazer isso de forma mais rápida.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente a passar com o pessoal do comercial, explicou como usar o programa para digitar a margem, selecionar produtos por departamento e aplicar as margens de lucro.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Identificação do problema: 16 minutos. Resolução: 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que gostaria de fazer as alterações de forma mais rápida e da melhor forma.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido. O cliente recebeu as instruções necessárias para ajustar as margens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>126</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1721830863.35774</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>O cliente precisa fazer um backup do servidor devido a preocupações com a integridade dos dados após cheias.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>O atendente verificou que o backup está sendo feito diariamente e sugeriu validar a integridade do backup restaurando-o em um banco de dados de teste. Também recomendou sincronizar com o Google Drive para armazenamento adicional.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Cerca de 15 minutos.
+   - Resolução: Aproximadamente 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>O cliente mencionou experiências anteriores ruins com backups, destacando a importância de ter certeza de que os backups estão íntegros.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido parcialmente com a confirmação do backup, mas ainda precisa de validação adicional.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>127</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1721831178.35783</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente não consegue escolher a tabela de preço ao fazer uma nota de devolução, o que resulta em um valor incorreto.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orienta o cliente a ajustar a nota de entrada que está referenciando, verificando a tributação do item e sugere excluir a nota errada para gerar um novo pedido corretamente.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 5 minutos
+   - Resolução: Aproximadamente 10 minutos</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não fornece sugestões ou feedback direto na transcrição, mas agradece ao final.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, o atendente conseguiu orientar o cliente sobre como corrigir a situação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>128</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1721831408.35785</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>O cliente está enfrentando um erro ao tentar incluir um cadastro de um produto que foi anteriormente excluído.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>A solução proposta envolve tentar reativar o cadastro do produto, verificando se o produto está vinculado corretamente e ajustando o código para permitir o salvamento.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Cadastro)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: 5 minutos
+   - Resolução: 10 minutos</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>O cliente não teve feedback específico, mas comentou sobre o processo de reimportação do produto.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>O problema foi parcialmente resolvido, pois o cliente conseguiu salvar após ajustar o código, mas ainda precisa verificar a vinculação correta dos produtos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>129</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1721839699.35854</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>O cliente tem um problema com a bonificação no sistema, onde os valores de custo não estão sendo puxados corretamente durante o faturamento.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente a desmarcar uma configuração no sistema e reabrir as notas para que o faturamento funcionasse corretamente.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: aproximadamente 15 minutos.
+   - Resolução: aproximadamente 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>O cliente não deu feedback específico, mas expressou satisfação ao final da ligação.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>130</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1721840750.35874</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>O cliente, Sebastião, está enfrentando um problema ao tentar processar uma nota de transferência entre lojas, onde o sistema trava e não processa a nota.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>A solução proposta foi realizar a transferência manual, digitando os itens um a um, já que o sistema estava apresentando lentidão para processar a nota com 80 itens. O atendente também sugeriu encaminhar a situação para a CISMO para avaliação do desempenho do sistema.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Erro de Sistema).</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: A identificação do problema durou cerca de 8 minutos, desde a explicação do cliente até a confirmação do problema.
+   - Resolução: A resolução proposta foi em torno de 5 minutos, com sugestões de ações a serem tomadas.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>O cliente sugeriu que seria interessante passar o caso para a CISMO, já que esperam ter mais notas grandes para transferir.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido, mas a solução manual foi sugerida e o caso será avaliado pela CISMO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>131</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1721842279.35895</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>O problema relatado pelo cliente é que algumas origens na análise gerencial não estão aparecendo, apenas três estão disponíveis.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A solução envolve verificar o acesso ao NDS e entender que a limitação se dá pela aplicação de filtros em diferentes departamentos no sistema.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 8 minutos; Resolução - 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>O cliente agradeceu e expressou compreensão sobre como os filtros podem afetar as informações.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>O problema foi parcialmente resolvido, pois o cliente entendeu a questão dos filtros, mas a confirmação de que tudo estava correto não é clara.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>132</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1721842356.35897</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>O cliente, Débora, relatou problemas com a contagem de inventário físico no sistema, onde os produtos contados ficaram com valores negativos.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>A solução proposta envolveu revisar o processo de inventário, sugerir que o cliente excluísse acertos incorretos e gerasse um novo inventário para corrigir os dados.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: aproximadamente 20 minutos, onde o cliente explicou as contagens e os problemas encontrados.
+   - Resolução: cerca de 10 minutos, discutindo as etapas de exclusão e criação de um novo inventário.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que havia algo errado nas configurações e que estava se sentindo confusa com o processo.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido durante a ligação, mas o cliente ficou satisfeita com as orientações para gerar um novo inventário.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>133</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1721844022.35940</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Problema: O cliente está com um erro no faturamento de um produto, que aparece como zero reais mesmo estando corretamente convertido.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Solução: O atendente identificou que o COE não estava marcado para atualizar custo. A correção foi feita ao alterar o código COI, permitindo que o sistema atualizasse os custos e refletisse corretamente no faturamento.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: 5 minutos
+   - Resolução: 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Feedback do cliente: O cliente agradeceu ao atendente pela ajuda, indicando que o problema foi compreendido e resolvido.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Problema resolvido? Sim. O problema foi corrigido e o cliente confirmou que tudo estava funcionando corretamente no final da chamada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>134</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1721844185.35946</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente não entende a mensagem do atendente e aguarda atendimento.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente informou que a JME entrega serviços com excelência e pediu para o cliente aguardar, prometendo atendimento em breve.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: Identificação do problema (não há tempo especificado) e Resolução (tempo não medido, pois foi apenas uma espera).</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não conseguiu entender o que o atendente estava dizendo.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, o problema de comunicação não foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>136</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1721845189.35965</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>O cliente está enfrentando um erro ao tentar abrir o software S1.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>O atendente sugeriu transferir o cliente para outros colegas e, eventualmente, pediu para testar o software com um usuário diferente e abrir como administrador.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 10 minutos; Resolução - não concluída durante a ligação.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>O cliente não forneceu sugestões ou feedback específico.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido durante a ligação, mas o cliente conseguiu abrir o software normalmente ao usar permissões de administrador.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>137</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1721845563.35972</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>O cliente não conseguiu estabelecer conexão com o servidor NFE ao tentar iniciar uma nota.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>A solução envolveu a verificação e reabertura do servidor na EFI, o que permitiu que o cliente conseguisse se conectar.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Identificação do problema: ~20 segundos. Resolução: ~2 minutos.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>O cliente agradeceu ao atendente, indicando satisfação.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>138</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1721846363.35988</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente, Wesley, apresentou uma nota trancada no sistema que já estava importada, mas os dados não apareciam ao tentar digitar.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente acessou o servidor do cliente. Identificou que a nota estava com registros incompletos e sugeriu excluir os registros para reimportar a nota do zero.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 5 minutos.
+   - Resolução: Aproximadamente 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente mencionou que o problema costuma ocorrer quando notas são abertas para ajustes, podendo travar o sistema.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, o atendente acredita que agora a importação da nota irá funcionar corretamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>139</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1721847279.35999</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>O cliente está com dificuldades em localizar notas fiscais e contra-notas que não estão gerando números e não conseguem ser impressas.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente a verificar se as notas foram geradas corretamente e que precisa imprimir as notas para integrá-las ao sistema fiscal.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 10 minutos.
+   - Resolução: Aproximadamente 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que perdeu tudo no estoque e que precisa imprimir as notas para resolver a situação, mas não há sugestões específicas.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>O problema ainda não foi completamente resolvido, mas o atendente forneceu orientações para que o cliente possa proceder com a impressão das notas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>140</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1721847587.36007</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>O cliente estava com problemas na impressão de notas fiscais devido a um servidor fechado e uma impressora desconfigurada.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>O atendente informou que o servidor estava fechado e, ao abrir, as notas começaram a ser autorizadas e imprimidas. Também sugeriu imprimir todas as notas para integração com o fiscal.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Identificação do problema: 7 segundos. Resolução: 33 segundos.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que a impressora estava desconfigurada e aceitou a sugestão de imprimir as notas para facilitar a integração.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido parcialmente, já que as notas começaram a ser imprimidas, mas a questão da impressora desconfigurada permaneceu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>141</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1721847952.36017</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>O cliente estava com dificuldades em visualizar informações de notas no sistema, especificamente sobre a mudança de status de notas impressas.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>A solução sugerida foi que o cliente acessasse os filtros e clicasse em "atualizar" para que as informações se atualizassem corretamente na tela.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 30 segundos; Resolução - 3 minutos.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>O cliente apenas expressou confusão inicialmente, mas não fez sugestões específicas.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido, pois o cliente agradeceu pela ajuda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>142</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1721848605.36024</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A cliente Karine relatou que alguns itens cadastrados como unidade estão com o número quebrado no relatório de perdas do sistema.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>O atendente sugeriu investigar com a equipe do PDV para entender o que pode estar causando o problema, uma vez que parece ser algo relacionado à venda dessas unidades.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Cadastro)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: aproximadamente 7 minutos.
+   - Resolução: aproximadamente 10 minutos, incluindo a abertura de chamado e coleta de informações.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>A cliente mencionou que não era um problema isolado e que outros itens, como o morango, também apresentaram a mesma questão.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido durante a ligação, mas um chamado foi aberto para investigação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>143</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1721849078.36038</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>O cliente precisa trocar peças do servidor e está em dúvida sobre como realizar a substituição e se precisa de configuração.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente a comunicar a troca do servidor, registrar um chamado e sugeriu verificar se o SSD pode ser mantido na nova máquina sem perder dados.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema: 10 minutos; Resolução: 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>O cliente mencionou a necessidade de conversar com o responsável da TI para a troca, reforçando a importância de agendar o backup.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido, mas o cliente recebeu orientações e irá agendar a troca.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>144</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1721850867.36072</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>O cliente não consegue verificar documentos importados nos últimos seis meses e precisa confirmar a importação de uma nota de março.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>O atendente orienta o cliente a usar o sistema para fechar o movimento e explica como verificar a importação de notas. Ele também menciona que se o fechamento mensal for feito, outros usuários não poderão alterar os dados.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 10 minutos; Resolução - 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>O cliente mencionou estar enfrentando problemas ao tentar fazer o fechamento mensal e solicitou orientações sobre como prosseguir.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sim, o atendente forneceu as informações necessárias para que o cliente pudesse concluir o processo e confirmou que as operações estariam protegidas após o fechamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>145</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1721852223.36095</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>O cliente está enfrentando um problema onde notas fiscais emitidas estão gerando uma perda de estoque de 19 milhões, um valor que nunca teve em seu sistema.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>A solução proposta envolve estornar as notas incorretas e emitir novas com os valores corretos. O atendente sugere que o cliente confirme a possibilidade de estorno com a parte fiscal.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: aproximadamente 10 minutos.
+   - Resolução: o tempo não é exatamente definido, mas a conversa sugere que mais algumas ações serão necessárias após o contato.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>O cliente sugere que, para evitar esses problemas em estoque, produtos que têm dificuldade de baixa sejam lançados diretamente como uso-consumo.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido, mas o atendente deu orientações sobre como proceder para corrigir a situação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>146</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1721853781.36123</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente informou que formatou o computador e reinstalou o MGV6, mas não sabia como importar os itens, pois só encontrou pastas de 2020.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orientou o cliente a fixar o IP da máquina, criou uma pasta para a balança e auxiliou na configuração do sistema para que os itens fossem gerados corretamente.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: Aproximadamente 10 minutos.
+   - Resolução: Aproximadamente 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não fez sugestões ou feedbacks específicos.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, as orientações foram dadas, e a configuração foi realizada para que o sistema funcionasse corretamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>148</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1721905489.36260</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>O cliente está tendo dificuldades para remover a opção de inserir quantidade na indicação de ruptura no aplicativo mobile.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>O atendente sugeriu acessar as configurações no aplicativo, mas explicou que a remoção da indicação de quantidade não é possível devido a regras do sistema. O atendente também informou que o cliente precisa ajustar o estoque do CD para poder indicar rupturas corretamente.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: 15 minutos.
+   - Resolução: 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que a equipe não está assimilando a necessidade de inserir as quantidades, tornando o processo confuso.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido, pois a opção de remover a quantidade não está disponível no sistema.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>149</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1721907400.36278</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: Um dos PDVs está passando vendas, enquanto dois outros não estão aceitando os códigos de promoção que foram criados.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orientou que, em casos de vendas passando, a carga demora para ser gerada e sugeriu que o sistema precisa estar parado para sincronizar corretamente.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: aproximadamente 3 minutos.
+   - Resolução: cerca de 4 minutos.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente agradeceu e mencionou que fica tranquilo com a solução apresentada.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>150</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1721907431.36281</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>**Descrição do Problema**: A cliente Mayra reporta um problema ao gerar cargas para o PDV, onde aparecem produtos com CFOP diferentes do COE no resumo diário das vendas.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>**Descrição da Solução**: O atendente ajustou a geração de carga e começou a rastrear o problema. Ele também mencionou a abertura de um chamado para investigar o que ocorreu durante uma troca de figuras fiscais.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>**Tipo de problema**: (Configuração)</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>**Tempo gasto em cada etapa**: 
+   - Identificação do problema: Aproximadamente 30 minutos.
+   - Resolução: Não foi finalizada na ligação, mas o atendente se comprometeu a rastrear e abrir um chamado.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>**Alguma sugestão ou feedback do cliente**: O cliente solicitou que as informações fossem rastreadas e reprocessadas, mas não forneceu feedback específico sobre o atendimento.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>**O problema foi resolvido?**: Não, o problema não foi totalmente resolvido na ligação, mas o atendente tomou medidas para investigar e resolver a situação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>209</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1722013331.37420</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>O cliente está enfrentando dificuldades para cadastrar o layout do boleto para uma nova loja, que não está configurada corretamente para o banco.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>O atendente explicou que o banco deve emitir boletos da mesma loja e sugeriu verificar o cadastro do importador e a configuração do layout do boleto manualmente.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: 5 minutos.
+   - Resolução: 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>O cliente não forneceu feedback claro, mas expressou preocupação com a configuração e a emissão do boleto.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido, mas foram dadas orientações para tentar solucioná-lo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>151</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1721908140.36309</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>O cliente relatou que o aplicativo fez um inventário e que os ovos estão aparecendo como indisponíveis nos pedidos de venda, mesmo tendo 22 unidades registradas.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>O atendente analisou a situação e identificou que um pedido de venda estava pendente, o que estava causando a indisponibilidade. Foi sugerido ao cliente que gerasse a nota novamente, já que houve um erro em uma nota anterior.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: aproximadamente 15 minutos.
+   - Resolução: aproximadamente 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que só estava tendo problemas com os ovos e que o sistema contabilizava incorretamente a quantidade, mas não deu sugestões específicas.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido, mas o atendente guiou o cliente sobre como evitar erros futuros e sugeriu a geração de uma nova nota.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>152</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1721909713.36355</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente, Marcos, relatou que um colaborador novo não consegue efetivar notas, pois as opções de editar, salvar, efetivar e excluir estão bloqueadas.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente Diogo sugeriu verificar as permissões do usuário e confirmou que o Federico criou um usuário bloqueado. O atendente planejou olhar as configurações de acesso para resolver a situação.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: 12 minutos.
+   - Resolução: 8 minutos.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: Marcos comentou sobre aprender algo novo com a ligação e agradeceu pela ajuda prestada.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não foi declaradamente solucionado na transcrição, mas a ligação foi encerrada com a sugestão de abrir um chamado para acompanhamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>153</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1721913016.36443</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>O cliente tinha dúvidas sobre como fazer trocas e a movimentação de estoque na hora da efetivação.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>O atendente explicou os procedimentos corretos para efetivar trocas e como configurar o sistema para automatizar esse processo, sugerindo melhorias.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Tempo gasto: 
+   - Identificação do problema: Aproximadamente 40 minutos.
+   - Resolução: Aproximadamente 20 minutos.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>O cliente sugeriu que o sistema automatizasse a informação do fornecedor e a quantidade na hora da efetivação, pois isso tornava o processo muito manual e moroso.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>O problema foi parcialmente resolvido; o cliente recebeu orientações, mas ainda ficou a preocupação com a necessidade de melhorias no sistema.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>154</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1721914499.36476</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>O cliente precisava de ajuda para importar uma nota.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente sobre a conexão de internet e verificação da nota, além de revisar os valores do ICMS.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema (2 minutos), Resolução (10 minutos).</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que estava complicado o processo e que o ICMS não estava sendo trazido corretamente.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>155</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1721915308.36488</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>O cliente está tendo dificuldades para emitir o MDF e menciona que a cubagem está errada pois não vem no caminhão, apenas no reboque.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>O atendente explicou que a cubagem deve ser informada conforme o veículo que leva a carga e orientou o cliente a registrar apenas o reboque como veículo.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Tempo gasto: 
+   - Identificação do problema: 15 segundos.
+   - Resolução: 2 minutos e 30 segundos.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>O cliente agradeceu pela ajuda e confirmou que a solução proposta estava correta.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>156</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1721915547.36498</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>O cliente precisa fazer uma nota de devolução de um produto que foi vendido por uma empresa diferente da que ele comprou.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>O atendente tenta entender o caso e explica que é possível que o produto seja devolvido mesmo assim.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 5 minutos; Resolução - não foi concluída na transcrição.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>O cliente menciona que não comprou mais da empresa que vendeu o produto, mas não dá sugestões ou feedback específico.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido na transcrição.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>157</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1721915944.36512</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente, Jennifer, precisava liberar seu usuário para excluir bônus no sistema.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orientou a cliente a tentar excluir o bônus novamente e verificou se o sistema permitia essa ação, resultando na exclusão bem-sucedida do bônus.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 1 minuto.
+   - Resolução: Aproximadamente 2 minutos.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente agradeceu pelo atendimento e pareceu satisfeita com a resolução do problema.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, o problema foi resolvido com sucesso.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>158</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1721916254.36518</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>O cliente está com dificuldades para lançar uma nota fiscal envolvendo bonificações de produtos, especialmente sobre como registrar corretamente o desconto da bonificação em vários itens.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente a realizar o lançamento da nota manualmente, sugerindo que ele utilize um sistema para registrar a verba de desconto nos produtos. Ele orientou a fazer o rateio do valor total da bonificação entre os itens e destacou a importância de consultar os dados corretos para garantir a aceitação da nota.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 10 minutos (início até a primeira sugestão)
+   - Resolução: Aproximadamente 25 minutos (11 minutos na explicação da solução e 14 minutos para simular o lançamento da nota).</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que tradicionalmente fazia o processo manual e perguntou como poderia aplicar isso no sistema, indicando uma dificuldade em entender todas as funcionalidades necessárias.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>O problema foi parcialmente resolvido, pois o cliente compreendeu o processo, mas teve dificuldades em aplicar ao sistema sem treinamento adicional, especialmente relacionado aos acordos comerciais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>159</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1721916372.36530</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>O cliente precisa extrair uma planilha com os produtos para abrir novas empresas pequenas, pois está mudando de sistema.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>O atendente informou que a extração deve ser feita pela empresa do cliente, que usará um usuário para acessar e pegar os dados, e que já foram enviados detalhes sobre isso anteriormente.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Identificação do problema: 15 minutos. Resolução: 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>O cliente pediu ajuda sobre a possibilidade de fornecer a planilha com os produtos.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido, pois a extração da planilha ainda precisa ser feita pelo cliente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>160</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1721916392.36532</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente relatou que o motorista está tendo problemas com o SMDF, pois precisa da placa dos dois veículos.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente sugere que é possível utilizar cubagem para resolver a questão e questiona se o cálculo está levando em consideração o peso da carga.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: aproximadamente 30 segundos (Inicio até 51s).
+   - Resolução: aproximadamente 40 segundos (Até 97s).</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: Não há sugestões ou feedback claro na transcrição.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não está claro se o problema foi resolvido, pois a solução ainda está sendo discutida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>161</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1721925596.36627</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>O cliente está com dificuldades para criar um novo relatório de vendas, pois o botão está desativado.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>O atendente sugeriu que o problema pode ser relacionado a permissões e que alguns relatórios do sistema não permitem novas criações.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Tempo gasto na identificação do problema: cerca de 5 minutos. Tempo para resolução: Não foi finalizado, mas a conversa durou aproximadamente 24 minutos.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>O cliente não deixou feedback específico, mas mencionou que o relatório é importante para suas operações.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido durante a ligação, mas o atendente orientou o cliente a verificar as permissões e os relatórios disponíveis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>162</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1721926879.36656</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>O cliente está com dificuldades em filtrar vendas por vendedor e período no sistema, pois a consulta está demorada e retornando informações erradas.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>O atendente sugere verificar a tela de relatórios e outros filtros disponíveis, além de pedir acesso ao cliente para análise do problema.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Tempo gasto na identificação do problema: aproximadamente 10 minutos. Tempo para resolução: não foi concluído na ligação.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>O cliente sugere que o sistema deve ter uma forma mais fácil de acessar os dados e reclama que a consulta é lenta, mencionando que deveria ser um processo simples.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido durante a ligação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>163</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1721927495.36669</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente está tendo dificuldades para emitir notas de referência com a empresa 3, pois o sistema está direcionando automaticamente para um código de transacionador da empresa anterior que não possui CPF cadastrado.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente criou um atendimento para investigar o problema e pediu ao cliente informações adicionais e a imagem do cadastro do transacionador. O cliente concordou em aguardar uma solução.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 12 minutos.
+   - Resolução: O atendimento está em andamento, sem tempo definido de resolução.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente mencionou que não tem urgência e pediu para que a situação fosse analisada com calma.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, o problema ainda está em análise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>164</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1721927558.36672</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>O cliente gostaria de implementar um controle de validade para produtos no depósito de uma loja específica.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>O atendente explicou que é possível implementar o controle de validade, mas que será necessário verificar com a equipe comercial a melhor forma de aplicar isso por loja.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: aproximadamente 2 minutos
+   - Resolução: aproximadamente 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>O cliente sugere a implementação de conferência cega durante o processo de recebimento e controle de validade.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>O problema foi parcialmente resolvido, pois a solução depende de uma verificação adicional com a equipe comercial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>165</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1721928084.36690</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: A cliente, Mariana, está com um problema para importar um produto, pois a empresa parece não estar autorizada a movimentar o produto.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente pediu que a cliente referenciasse de novo, explicando que para movimentar o produto, o código da empresa deveria estar na aba de produtos relacionados.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: 4 minutos.
+   - Resolução: 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: Agradecimento ao atendente por solucionar a questão.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>166</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1721929252.36720</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>**Descrição do Problema:** O cliente, Mauro, reportou uma inconsistência na validação do aplicativo.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>**Descrição da Solução:** O atendente solicitou os acessos necessários para atualizar as máquinas do cliente, instruiu sobre como aceitar o convite de acesso e pediu para que Mauro fornecesse os acessos das outras máquinas.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>**Tipo de problema:** Configuração.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>**Tempo gasto em cada etapa:**
+   - Identificação do problema: Aproximadamente 5 minutos.
+   - Resolução: Aproximadamente 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>**Alguma sugestão ou feedback do cliente:** O cliente não fez sugestões específicas, mas pediu calma e demonstrou que tinha outras máquinas para acesso.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>**O problema foi resolvido?** O problema parece ter sido parcialmente resolvido, com o atendente orientando sobre o acesso às máquinas, mas aguarda uma confirmação da TI para concluir a operação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>167</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1721929288.36723</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>O cliente estava tentando fazer uma nota de devolução e não conseguia fazer a quantidade, volume e peso aparecerem corretamente na nota.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente sobre como preencher a nota e verificar os cadastros necessários. O cliente conseguiu fazer a nota funcionar corretamente após seguir as instruções.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Processo).</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 10 minutos.
+   - Resolução: Aproximadamente 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que houve confusão em relação às quantidades e volumes na nota e que eles não aceitaram a nota no destino devido a inconsistências.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido. O cliente conseguiu gerar a nota corretamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>168</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1721931887.36818</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>O cliente relatou que o QR Code do Pix não estava sendo lido e aparecia a mensagem "QR Code inválido".</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>O atendente informou que o problema pode estar relacionado à instabilidade do banco Cicred e que o cliente deve tentar novamente mais tarde.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 5 minutos; Resolução - 4 minutos.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>O cliente parecia preocupado com a situação, mas não deu um feedback significativo.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido, pois a solução proposta foi que o cliente deveria tentar novamente mais tarde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>169</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1721931896.36819</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>**Descrição do Problema:** O cliente, Alice, relatou que houve um erro na entrada de notas da cerveja Brahma, que foram registradas pelo valor do fardo (R$ 44,00), afetando o inventário e resultando em um custo de aquisição incorreto.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>**Descrição da Solução:** O atendente, Diogo, orientou o cliente a consultar a contabilidade sobre como proceder, sugerindo que ele poderia gerar um novo inventário e verificar com a contabilidade as orientações para corrigir o erro nos registros.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>**Tipo de problema:** (Erro de Sistema)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>**Tempo gasto em cada etapa:**
+   - Identificação do problema: aproximadamente 15 minutos (diálogo entre o cliente e o atendente).
+   - Resolução: 10 minutos, com orientações e consulta à contabilidade.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>**Alguma sugestão ou feedback do cliente:** O cliente mencionou que estava em contato com a contabilidade e que a orientação não estava clara, solicitando ajuda para entender como corrigir o erro.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>**O problema foi resolvido?** Não completamente, pois o cliente precisa de mais informações da contabilidade para seguir adiante com a correção.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>210</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1722013908.37436</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>O cliente relatou que a impressora estava imprimindo etiquetas normais, mas outras saíam todas brancas e a impressora estava emitindo erros.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>O atendente sugeriu desligar e ligar a impressora, além de verificar se o rolo estava alinhado corretamente com o sensor. Após ajustes, a impressora voltou a funcionar corretamente.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 4 minutos.
+   - Resolução: Aproximadamente 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>O cliente não deu sugestões ou feedback específicos, mas expressou satisfação ao final da ligação.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido. A impressora voltou a funcionar corretamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>170</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1721932231.36827</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>O cliente tem dúvidas sobre como cadastrar e gerenciar derivados de cortes de carne no sistema, o que está causando dificuldades no controle de estoque e balanço.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>A atendente sugeriu que o cliente utilize o cadastro de rendimentos em vez de derivados, pois isso facilitaria o controle de entradas e saídas. Ela também mencionou que o derivado geralmente lida com a saída do produto e não com a entrada.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 15 minutos; Resolução - 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>O cliente gostaria de um método mais prático para gerenciar o cadastro e controle dos cortes.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido, mas o cliente recebeu orientações sobre como proceder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>171</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1721932296.36836</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente informou um problema no Scantec, que não estava comunicando.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente reiniciou os serviços e orientou o cliente a aguardar a próxima atualização. Um chamado foi aberto para monitorar a situação.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: aproximadamente 5 minutos.
+   - Resolução: cerca de 3 minutos.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não forneceu feedback específico, mas concordou em avaliar o atendimento.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não há confirmação de que o problema foi totalmente resolvido, pois o atendimento foi orientado a monitorar a situação após reiniciar os serviços.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>172</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1721933527.36860</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>O cliente está com um problema de backup, que está sendo gerado com apenas 1 Kbyte.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>O atendente transferiu o cliente para a central de banco de dados, onde um analista iria ajudar a solucionar o problema.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 5 minutos; Resolução - o tempo gastou mais tempo para ser encaminhado ao analista.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>O cliente não forneceu feedback específico, mas teve uma interação cordial.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido durante a ligação; o cliente foi encaminhado para um analista.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>173</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1721934150.36873</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>O cliente tem uma dúvida sobre como alterar o registro de pagamento de notas de cheque à vista para boleto, já que agora estão utilizando boletos.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>O atendente sugeriu que o cliente alterasse a condição do pagamento dentro do cadastro do fornecedor e orientou sobre como fazer isso, destacando que as mudanças seriam aplicáveis nas próximas notas.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 5 minutos (do início até a explicação do problema pelo cliente).
+   - Resolução: Aproximadamente 10 minutos (quando o atendente apresentou a solução e o cliente confirmou que entendeu).</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que era uma dúvida simples, mas que estava incomodando, pois precisava entrar na nota toda vez.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido. O cliente saiu satisfeito com a solução apresentada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>174</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1721934201.36877</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>O cliente não conseguiu lançar uma nota devido a uma diferença no ICMS.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>O atendente identificou que o lançamento estava incorreto e ajustou os valores para resolver o problema.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 5 minutos; Resolução - 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>O cliente não deu sugestões ou feedbacks específicos, mas agradeceu pela ajuda.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>175</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1721936008.36916</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente está tendo dificuldades para emitir notas, pois o servidor está aguardando um retorno.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente ajudou o cliente a realizar a emissão de notas e reenviar uma nota que não estava dando certo. O problema foi identificado e corrigido, garantindo que a operação funcionasse.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: 1-2 minutos.
+   - Resolução:</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>6 minutos.
+5 - Alguma sugestão ou feedback do cliente: O cliente agradeceu o suporte e pareceu satisfeito ao final da ligação.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>176</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1721936970.36926</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>O cliente tinha dúvidas sobre a criação e aplicação de uma tabela de preços específica para vendas externas, onde os preços seriam 1% mais caros que os da loja.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>O atendente confirmou que era possível criar essa tabela e explicou que, para aplicar o aumento, deveria ser adicionado 1% aos preços da tabela.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Identificação do problema: 10 minutos (do início da ligação até a identificação do que o cliente queria). Resolução: 8 minutos (até o momento em que o atendente explicou como configurar a tabela de preços).</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>O cliente destacou a importância de garantir que a tabela ficaria 1% mais cara e que o vendedor teria que utilizá-la. O feedback foi em forma de dúvidas para confirmar detalhes da configuração.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido com a explicação do atendente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>177</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1721938242.36937</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>O cliente está enfrentando problemas com o cadastro de receitas e alterações incorretas nos preços dos produtos na padaria.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>O atendente sugere abrir um chamado para investigar as alterações de preço e orienta o cliente a monitorar os produtos afetados.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 8 minutos
+   - Resolução: Aproximadamente 5 minutos</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>O cliente menciona que está alterando preços, mas necessita de confirmação sobre alterações automáticas que estão ocorrendo.</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido, mas foi aberto um chamado para análise posterior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>178</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1721938542.36943</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>O cliente está enfrentando um erro ao tentar acessar o sistema, mencionando que ocorre um comportamento inesperado.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>O atendente sugere ignorar o erro e continuar o trabalho. Ele também pede para o cliente verificar se há outros colegas enfrentando o mesmo problema e menciona a necessidade de atualização no computador.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 10 minutos.
+   - Resolução: O atendente ficou conectado e realizando verificações, mas não foi definida uma solução final ainda.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>O cliente não fez sugestões ou feedbacks diretos, mas mencionou a necessidade de atualização de alguns computadores.</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido durante a ligação. O atendente vai continuar a assistência com o suporte da Nextstep.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>179</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1721938718.36945</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente Fábio Dorrice relata uma situação de estorno e não sabe com quem tratar para resolver o problema.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente informa que vai passar a situação para a equipe responsável.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: aproximadamente 3 minutos.
+   - Resolução: Não houve resolução na ligação, apenas encaminhamento.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: Não foi mencionado feedback ou sugestão.</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, o problema não foi resolvido na ligação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>212</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1722014757.37452</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>O cliente tem dúvidas sobre como lançar uma nota de compra por industrialização sem gerar estoque manualmente.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>O atendente explicou que não é possível fazer a alteração desejada e sugeriu que o cliente separasse as notas para destinar os produtos corretamente.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Processo.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Tempo gasto:  
+   - Identificação do problema: 3 minutos  
+   - Resolução: 4 minutos</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>O cliente não expressou sugestões ou feedbacks específicos.</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Não. O problema não foi resolvido na chamada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>180</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1721939294.36960</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente deseja que o nome do fiscal que faz o cancelamento seja impresso no comprovante de justificativa gerado pelo PDV.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente informa que não é possível imprimir o nome do fiscal, mas que é possível filtrar as informações em um relatório onde aparece quem fez o cancelamento.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: Identificação do problema (aproximadamente 12 minutos), Resolução (aproximadamente 5 minutos).</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente sugere melhorar o sistema para incluir o nome do fiscal no comprovante.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, pois a demanda do cliente não pode ser atendida com a funcionalidade atual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>181</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1721939367.36962</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>O cliente está tentando mudar a referência de um produto, mas não consegue.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente a verificar o código do produto e se comprometeu a ajudar na troca da referência.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: Identificação do problema - aproximadamente 2 minutos; Resolução - aproximadamente 3 minutos.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que estava em uma correria e precisava de ajuda, mas não há sugestões ou feedback específico.</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido na transcrição, mas o atendente estava prestando assistência.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>183</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1721939658.36972</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente precisa atualizar uma máquina do sistema Sismo, que não foi feita durante a atualização geral.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente verificou que a versão do Sismo na máquina estava desatualizada e orientou o cliente a reiniciar o sistema para facilitar a atualização.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: 5 minutos
+   - Resolução: 5 minutos</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não deu feedback específico, mas mencionou que o sistema estava desatualizado.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, o problema foi resolvido após as orientações do atendente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>184</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1721939855.36973</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente, Marlon, precisa de ajuda para instalar uma nova impressora de etiquetas na máquina.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orientou o cliente a mapear a impressora no sistema Sysmo e verificar as configurações, além de trocar a nomenclatura da impressora para padronizar.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: Aproximadamente 10 minutos (do início da ligação até a confirmação do problema).
+   - Resolução: Aproximadamente 30 minutos (tempo total até o cliente confirmar o que foi feito).</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente mencionou que a instalação de impressoras é um processo difícil e que gostaria de assistência adicional no dia seguinte.</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, o cliente foi orientado a ligar novamente no dia seguinte para mais assistência.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>185</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1721940345.37001</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>O cliente quer saber como configurar o Cismo para obrigar o vendedor a usar uma tabela de preços específica no Força de Vendas.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>O atendente informou que não tem certeza se é possível fazer essa configuração, sugerindo que o cliente abra um chamado para obter uma resposta mais precisa.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: cerca de 4 minutos.
+   - Resolução: cerca de 6 minutos.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que vai testar por conta própria e que, caso precise, abrirá um chamado. Não há um feedback específico além disso.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Não, o problema não foi resolvido, mas o cliente ficou ciente de que pode abrir um chamado para mais informações.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>186</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1721994196.37071</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>**Descrição do Problema:** O cliente, Sebastião, tem dúvidas sobre o cadastro de rendimentos de cortes de carne e como fazer isso sem interferir no estoque durante as operações da loja.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>**Descrição da Solução:** O atendente explicou que para realizar o rendimento de cortes, é necessário zerar o estoque do produto inteiro, e isso deve ser feito em um horário que não ocorra movimentação de vendas. Também mencionou a possibilidade de controlar os rendimentos no sistema, mas ressaltou que o controle de estoque dos cortes pode ser complexo e dependerá da uniformidade dos cortes.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>**Tipo de problema:** Processo</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>**Tempo gasto em cada etapa:**
+   - Identificação do problema: Aproximadamente 5 minutos.
+   - Resolução: Aproximadamente 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>**Sugestão ou feedback do cliente:** O cliente agradeceu as informações e pareceu satisfeito com a explicação do atendente sobre como lidar com o problema de cadastro de rendimentos e corte.</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>**O problema foi resolvido?** Sim, o cliente obteve as informações necessárias para entender como cadastrar os rendimentos corretamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>187</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1721995177.37083</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente não consegue acessar o SISMO.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente irá verificar se o problema está no servidor ou se afeta todas as máquinas.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 15 segundos; Resolução - não especificado na transcrição.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não forneceu sugestões ou feedback.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não foi mencionado se o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>188</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1721995490.37095</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente está com dificuldades para visualizar documentos agrupados no Cadexo e não sabe como desabilitar essa função.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente explicou que a configuração para desagrupar os documentos deve ser feita no próprio Kardex e ofereceu ajuda para realizar o procedimento.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: aproximadamente 4 minutos.
+   - Resolução: aproximadamente 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não deu feedback específico, mas agradeceu pela solução.</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, o cliente confirmou que o problema foi solucionado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>189</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1721995541.37097</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente está enfrentando dificuldade ao imprimir um relatório, pois ele não fica salvo no formato paisagem e retorna ao padrão sempre que o cliente fecha e abre novamente.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente esclareceu que não há como deixar o formato paisagem como padrão, sendo necessário clicar em um botão toda vez que for imprimir.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: 10 segundos
+   - Resolução: 8 minutos.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente gostaria de poder deixar o formato paisagem como padrão e achou a situação pouco prática.</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>190</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1721997581.37137</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>**Descrição do Problema:** O cliente Dinai relatou que um produto que deveria dar desconto na promoção do Scantec não está aplicando o desconto, apesar de não haver promoções ativas.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>**Descrição da Solução:** O atendente Diogo explicou que o sistema está puxando a informação de promoções que não permitem alterações. Ele sugeriu que o cliente verifique no site do Scantec o produto correto e entre em contato novamente.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>**Tipo de problema:** Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>**Tempo gasto em cada etapa:**
+   - Identificação do problema: 3 minutos.
+   - Resolução: 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>**Alguma sugestão ou feedback do cliente:** O cliente solicitou a volta às promoções para verificar detalhes, mas não forneceu um feedback específico.</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>**O problema foi resolvido?** Não, o problema não foi resolvido na ligação. O cliente foi orientado a investigar e retornar com mais informações.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>191</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1721997787.37140</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente precisa de um relatório de tributação dos itens vendidos nos últimos 12 meses, com NCM, tributação, ICMS, PIS e COFINS.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente confirmou que pode gerar o relatório solicitado e pediu um momento para abrir as informações necessárias.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: aproximadamente 3 minutos. 
+   - Resolução: 5 minutos para o atendente acessar a informação e explicar o procedimento.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente expressou que havia necessidade de detalhes específicos no relatório, mas não fez críticas diretas.</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? O problema não foi resolvido durante a ligação, mas o atendente está trabalhando na solução.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>192</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1721998185.37145</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>O cliente relatou uma dúvida sobre a troca de produtos. Ele mencionou que uma troca errada foi lançada e que, apesar de ajustar o cadastro, o valor continuava aparecendo no relatório de trocas.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>O atendente indicou que esse problema poderia ser resolvido através da transferência para o setor comercial que poderia ajudar melhor com a situação e sugeriu que um relatório diferente poderia ser feito para visualizar somente o saldo em trocas.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Processo).</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - cerca de 10 minutos. Resolução - não concluído na ligação, pois o cliente foi transferido para outro setor.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>O cliente expressou frustração com a manualidade do processo de lançamento e as dificuldades em ajustar as informações erradas lançadas.</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido na ligação, pois o atendente encaminhou o cliente para o setor comercial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>193</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1721998970.37152</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>O cliente, João Pedro, precisa de ajuda para visualizar uma nota recebida no sistema da Cismo.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>O atendente explicou que a visualização da nota em PDF deve ser feita pelo setor comercial e orientou o cliente a utilizar o site para consultar a nota.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Cerca de 7 minutos.
+   - Resolução: Não houve resolução completa, apenas orientação de como proceder.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>O cliente não deixou sugestões ou feedbacks claros, mas mostrou interesse em resolver o problema.</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>O problema não foi completamente resolvido, apenas foi direcionado para outra etapa de consulta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>194</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1721999290.37163</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>O cliente está enfrentando um erro de recaimento de CST ao tentar faturar uma nota. Ele menciona um erro de índice e incompatibilidade com a inscrição estadual.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>O atendente sugere que o cliente cancele a nota e repita o processo de faturamento. O cliente também deve verificar a configuração do cadastro do cliente e a inscrição estadual.</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Cadastro)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: Aproximadamente 10 minutos.
+   - Resolução: Aproximadamente 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>O cliente sugere que a situação poderia ser esclarecida com uma melhor orientação sobre o uso do sistema, especialmente referente ao cancelamento e reemissão das notas.</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido na ligação. O cliente ainda precisaria seguir as orientações do atendente e tentar realizar o faturamento novamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>196</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1721999516.37171</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: A cliente Débora precisa configurar um relatório para analisar a margem de lucro dos produtos, pois o dono da empresa percebeu diferenças nas margens entre as lojas e a cliente não tem acesso para criar esse relatório.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orientou a cliente sobre como acessar o sistema e configurar um novo relatório, sugerindo usar o relatório de análise gerencial, que é o mais atualizado. O atendente também explicou como identificar os produtos com problemas de custo.</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+- Identificação do problema: 15 minutos (Início até a explicação sobre a análise gerencial).
+- Resolução: 25 minutos (Explicação sobre o acesso, configuração do relatório e identificação dos problemas nos custos).</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: A cliente mencionou que o ABC de venda não é mais usado e que existem relatórios mais atualizados, mas não fez sugestões específicas.</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, a cliente foi orientada a configurar o relatório e identificar os problemas de margem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>197</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1721999687.37176</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Não há descrição clara de um problema na transcrição, parece ser um atendimento inicial.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Não há uma solução mencionada, pois não há informação sobre o problema.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Nenhum, pois o atendimento não chegou a discutir um problema específico.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: Não há informações sobre tempo de identificação ou resolução.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Não há sugestões ou feedback do cliente na transcrição.</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Não há como determinar se o problema foi resolvido, pois não foi identificado um problema.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>198</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1722000507.37193</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Não há descrição clara do problema na transcrição.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Não há descrição da solução na transcrição.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Não identificado.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: Não disponível na transcrição.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Não há sugestão ou feedback do cliente na transcrição.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido, pois a ligação foi interrompida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>199</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1722000620.37199</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que o microfone não estava funcionando e ninguém o ouvia durante as chamadas.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>O atendente forneceu informações sobre como registrar notas fiscais e orientações sobre a operação, mas não abordou diretamente o problema do microfone.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Erro de Sistema).</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Tempo: 
+   - Identificação do problema: Exato tempo não especificado, mas o cliente apresentou o problema logo no início da chamada.
+   - Resolução: O atendente continuou a fornecer informações sem resolver o problema do microfone.</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>O cliente fez comentários sobre a dificuldade em receber atendimento e a música de espera durante a ligação.</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>201</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1722001581.37284</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>O cliente teve problemas com o lançamento de preços no sistema, onde itens da mesa 8 não foram revogados corretamente ao passar para a mesa 9, resultando em preços duplicados e não atualizados.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>O atendente verificou a conexão do integrador, que estava inativa, e auxiliou o cliente a restabelecer essa conexão. O atendente também informou que o sistema atualizaria os preços dentro de 15 minutos após a conexão ser restabelecida.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Tempo gasto: 
+   - Identificação do problema: 15 minutos.
+   - Resolução: 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>O cliente expressou frustração com a situação, mencionando a dificuldade em classificar muitos itens, mas não forneceu sugestões específicas.</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>O problema foi parcialmente resolvido, pois a conexão foi restaurada, mas o cliente ainda precisa monitorar se os preços serão atualizados corretamente no sistema.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>202</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1722002507.37308</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>O cliente relatou dificuldades ao cadastrar uma promoção de vinhos, onde algumas lojas não conseguiram aplicar a promoção em mais de duas unidades de forma correta.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>O atendente ajudou a identificar que um cadastro de faixa de quantidade estava incorreto, o que impediu a aplicação da promoção. O cliente foi orientado a excluir itens errados para permitir o correto funcionamento do sistema.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema: 10 minutos. Resolução: 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>O cliente não fez sugestões específicas, mas ficou satisfeito ao entender o motivo do problema e a solução.</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>203</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1722002843.37319</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>O cliente relatou que a impressora de etiquetas no Mercado do Gringo, em Porto Alegre, não está funcionando.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>O atendente sugeriu verificar o acesso da máquina e confirmou que o IP da impressora estava incorreto, indicando que poderia haver uma troca de IP na rede.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: cerca de 27 minutos.
+   - Resolução: não finalizada na ligação, mas foi orientado o cliente a testar a impressora depois da configuração sugerida.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>O cliente não fez sugestões ou feedbacks claros durante a ligação.</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido durante a ligação; o cliente foi orientado a testar a impressora após as instruções.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>204</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1722003179.37322</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>O cliente, Eduardo, precisava de um relatório que mostrasse as vendas e as perdas de produtos, principalmente da padaria, para poder comparar esses dados.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>O atendente sugeriu utilizar o Excel para criar um relatório que comparasse as vendas e as perdas, além de esclarecer que algumas informações não apareciam dependendo do filtro de departamento aplicado.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Processo)</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: cerca de 10 minutos.
+   - Resolução: aproximadamente 20 minutos.</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>O cliente sugeriu que seria mais fácil se conseguisse visualizar todos os dados de forma separada para análise mais eficiente.</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido, pois o atendente apresentou uma solução viável usando o Excel e explicou como o cliente poderia acompanhar os dados de modo mais acessível.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>205</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1722003225.37327</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente relatou uma questão sobre o inventário e o ICMS, se estava escondendo o custo dos produtos ao enviar informações para o contador.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orientou o cliente a verificar os custos no sistema e a avaliar o preço dos produtos, sugerindo que o cliente alterasse os dados no sistema para refletir valores corretos.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: 10 minutos.
+   - Resolução: 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente mencionou que os dados podem estar errados e que irá entrar em contato novamente após verificar com a contabilidade.</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não completamente, o cliente ainda irá averiguar e retornar com mais informações.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>206</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1722003360.37335</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>O cliente informou que a impressora de etiquetas não estava imprimindo a descrição do produto, apenas o código de barra e o preço.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>O atendente sugeriu verificar o layout da impressão e fazer ajustes, além de limpar o sensor da impressora. O cliente e o atendente trabalharam juntos nas configurações da impressora até que o problema foi resolvido.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Configuração.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Identificação do problema: 10 minutos. Resolução: 20 minutos.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>O cliente expressou satisfação no final, agradecendo pela ajuda.</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>207</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1722004341.37364</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente, Idemardo, estava tentando emitir um orçamento no sistema, mas tinha dificuldades em passar os produtos na frente do caixa e reimprimir a DAVE.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente explicou que o processo de orçamento deve ser feito na retaguarda, mas não tinha certeza se havia uma forma prática de realizar isso em frente ao caixa. Foi sugerido que o cliente fizesse um chamado para verificar soluções.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: Identificação do problema - 12 minutos; Resolução - 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente sugere que o processo de emissão de orçamentos seja mais prático no PDV.</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, o problema não foi totalmente resolvido; o cliente foi orientado a abrir um chamado para buscar um suporte adicional.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>208</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1722012980.37411</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: A cliente, Graciela, teve um problema ao tentar fazer uma nota de devolução que foi rejeitada e não consegue excluí-la. Ela também mencionou dificuldade com o NCM de um produto.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente acessou o servidor, ajudou a esclarecer a situação da nota e sugeriu que a cliente tirasse uma foto da nota para enviar a um colega antes de autorizá-la. A nota foi autorizada pelo sistema, e a cliente conseguiu salvar e enviar.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: aproximadamente 5 minutos.
+   - Resolução: aproximadamente 8 minutos.</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: A cliente pediu para garantir que os dados estivessem corretos antes de prosseguir, mas não fez sugestões específicas.</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, o problema foi resolvido com a autorização da nota e a cliente conseguiu seguir com o procedimento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>211</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1722014092.37438</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>O cliente precisa trocar um produto em uma nota de entrada, mas está enfrentando dificuldades porque o sistema acusa um erro ao tentar fazer a troca.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>O atendente identificou que o cadastro do produto está incorreto e orientou o cliente a excluir o cadastro e refazê-lo corretamente.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Cadastro)</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 1 minuto; Resolução - 4 minutos.</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>O cliente não fez sugestões ou feedbacks específicos.</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>214</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1722015031.37475</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>O cliente precisa de ajuda para gerar um relatório dos produtos recém-criados e está tendo dificuldades para puxá-lo.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>O atendente orientou que o cliente deve verificar os produtos separados por categoria e que a exportação para Excel pode incluir o código interno, o código de barras e o nome do produto.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - aproximadamente 2 minutos; Resolução - 4 minutos.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que estava "quebrando a cabeça" para encontrar a informação, mas não houve feedback específico sobre o atendimento.</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido, pois o cliente recebeu orientações sobre como acessar os relatórios desejados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>215</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1722015463.37487</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente, Alisson, questiona sobre a integração de itens no pricing e a possibilidade do sistema voltar ao preço anterior após a atualização manual.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente, Fernando, orientou o cliente a passar o exemplo para o Vilmo, que está em contato com os desenvolvedores, e recomendou enviar informações sobre a rastreabilidade para obter uma resposta mais precisa.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: Identificação do problema: 4 minutos; Resolução: 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente não fez sugestões, mas agradeceu pelo atendimento.</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não totalmente, o cliente precisa consultar o Vilmo para uma resposta mais assertiva.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>216</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1722015591.37490</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: A cliente mencionou que ao tentar fazer cestas no sistema, a carga não estava sendo enviada para o caixa.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orientou a cliente a verificar se a cesta estava cadastrada corretamente e a concluir uma venda para que a carga fosse enviada.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: Aproximadamente 20 minutos
+   - Resolução: A solução foi proposta, mas não foi confirmada a resolução durante a ligação.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: A cliente não forneceu sugestões ou feedback claro, mas mencionou ter dificuldades com o cadastro da cesta.</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, o problema não foi resolvido durante a ligação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>218</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1722016513.37513</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>O cliente tinha problemas com o cadastro de promoções, pois as promoções não estavam refletindo corretamente no caixa.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>O atendente orientou o cliente a aplicar o valor promocional no preço unitário e confirmou que o problema estava relacionado ao tempo de carga dos dados no PDV. Após a atualização, a promoção começou a funcionar corretamente.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Cadastro.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Tempo gasto na identificação: 5 minutos (perceber que a promoção não estava carregando corretamente). Tempo gasto na resolução: 3 minutos (orientação sobre o correto uso do sistema e atualização).</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que tinha feito o cadastro corretamente, mas não aguardou o tempo necessário para a carga no sistema.</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido. O cliente confirmou que a promoção começou a funcionar após a atualização.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>219</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1722016662.37518</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>O cliente não consegue exportar um backup do Postgres por conta do tamanho do arquivo.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>O atendente explicou que o backup do Postgres é feito de todo o banco e que não é possível exportar apenas as tabelas individualmente.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Tipo de problema: (Erro de Sistema)</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: 9 minutos
+   - Resolução: 8 minutos</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que vai verificar com outra pessoa sobre o erro e agradeceu pela ajuda.</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido, mas foi esclarecido como funcionam os backups.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>220</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1722016928.37525</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: A cliente Jéssica relatou que após uma atualização no sistema, não conseguiu abrir uma requisição para inserir produtos, devido a uma mensagem de erro informando que "o produto não permite estoque negativo" e que a quantidade era superior ao estoque disponível.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente Diogo pediu para verificar a situação e comentou que o problema estava relacionado a ajustes no sistema.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: 10 minutos.
+   - Resolução: 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: A cliente expressou a necessidade de entender o que foi ajustado no sistema que causou a falha e mencionou que algumas coisas mudaram, mas que apenas isso impactou o funcionamento.</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Não, a solução foi apenas um esclarecimento, mas o problema persistiu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>221</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1722017385.37534</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente teve um problema na emissão de etiquetas devido à troca de modem, resultando na perda da conexão com a impressora.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente ajudou o cliente a identificar e reconfigurar a impressora para que a emissão de etiquetas fosse restabelecida.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: 15 minutos.
+   - Resolução: 10 minutos.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente agradeceu e considerou a solução boa.</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>222</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1722017616.37539</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>O cliente está com um problema em uma nota fiscal que não consegue finalizar, pois aparece uma mensagem pedindo um valor a ser colocado.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>O atendente explicou que o cliente pode alterar o valor da nota, e juntos eles verificaram e ajustaram a nota até conseguir resolver o problema.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 10 minutos.
+   - Resolução: Aproximadamente 15 minutos.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que estava tendo dificuldades e que precisa ser ágil devido ao trabalho em dois lugares.</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>223</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1722020277.37592</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>O cliente, Kayla do Mercado do Arte, solicita informações sobre como integrar as etiquetas eletrônicas ao sistema Sysmo, mencionando que é necessário passar uma base de dados para o sistema deles.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>O atendente orienta que, para proceder, o cliente deve verificar como o arquivo é necessário e abrir um chamado com as informações. A equipe então avaliará as configurações para gerar o arquivo adequadamente.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Tempo gasto:
+   - Identificação do problema: Aproximadamente 10 segundos.
+   - Resolução: Aproximadamente 2 minutos.</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>O cliente não fez nenhuma sugestão ou feedback específico durante a ligação.</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido na ligação, mas foi direcionado para um processo que poderá ser concluído posteriormente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>224</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1722020612.37604</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>O cliente estava com dificuldade para fazer o backup em extensão SQL do banco de dados.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>A solução proposta foi realizar uma conexão externa ao invés de tentar fazer o backup, permitindo o acesso em tempo real ao banco de dados. O atendente se ofereceu para enviar instruções por e-mail.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema até 32 segundos e Resolução até 42 segundos.</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>O cliente agradeceu e ficou satisfeito com a sugestão de conexão externa, que seria mais fácil do que um backup.</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>O problema não foi resolvido na ligação, mas foi proposta uma solução que o cliente aceitou e ficará aguardando as instruções.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>225</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1722021165.37611</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: O cliente está enfrentando dificuldades com discrepâncias nos valores dos inventários de janeiro e fevereiro e precisa de um relatório comparativo que mostre as quantidades vendidas e contadas.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente sugeriu que o cliente utilizasse um relatório que mostrasse entradas e saídas de estoque, orientando sobre como configurar os filtros e comparações de dados no sistema.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa: 
+   - Identificação do problema: 10 minutos (do início até o entendimento da discrepância).
+   - Resolução: 15 minutos (orientações sobre relatórios e filtros).</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: O cliente elogiou o suporte do atendente, mencionando que a ajuda seria útil em outras situações.</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Sim, o cliente recebeu orientações que vão ajudá-lo a resolver a questão, embora tenha indicado que não era exatamente o que procurava.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>226</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1722023273.37663</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>O cliente possui uma cliente que deseja continuar usando um convênio sem fornecer o CPF, o que levanta dúvidas sobre a conformidade com a legislação de proteção de dados.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>O atendente explicou que, para realizar transações, o CPF da cliente é necessário de acordo com a lei. Informou que a exclusão de dados do sistema pode ser feita, mas é necessário abrir um chamado para isso.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Processo.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 5 minutos; Resolução - 7 minutos.</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>O cliente comentou sobre a necessidade de excluir completamente os dados do sistema, conforme a LGPD.</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>O problema não foi totalmente resolvido, pois o cliente precisa abrir um chamado para a exclusão dos dados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>227</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1722024430.37686</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>O cliente teve um problema com a impressão de etiquetas, que estava cortando na metade após trocar o computador e instalar a impressora.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>O atendente ajustou as configurações da impressora e sugeriu verificar o driver para resolver o problema de impressão das etiquetas.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Configuração.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Tempo gasto: 
+- Identificação do problema: aproximadamente 15 minutos.
+- Resolução: aproximadamente 20 minutos.</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>O cliente mencionou que a impressão estava saindo corretamente após os ajustes, mas ainda não conseguia destacar as etiquetas com facilidade.</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>O problema foi parcialmente resolvido; as etiquetas estavam saindo corretamente, mas havia dificuldade para destacá-las completamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>228</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1722026768.37726</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Descrição do Problema: A cliente Jéssica informou sobre uma requisição que estava apresentando erros na loja 2 e que não conseguia acessar essa requisição devido a mensagens de erro sobre usuários que estavam mexendo nela.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Descrição da Solução: O atendente orientou que poderiam ajustar os produtos e solicitou que a cliente ligasse novamente caso houvesse mais problemas com outros produtos.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Tempo gasto em cada etapa:
+   - Identificação do problema: cerca de 10 minutos.
+   - Resolução: cerca de 5 minutos.</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Alguma sugestão ou feedback do cliente: A cliente não fez sugestões específicas, mas mencionou que a situação pode estar relacionada ao fechamento inesperado da requisição.</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>O problema foi resolvido? Parcialmente, pois a cliente conseguiu acessar a requisição, mas existe a possibilidade de outros produtos estarem com erro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>230</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1722082124.37793</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>O cliente, Douglas, informou que o servidor estava travando e com problemas de memória, dificultando a emissão de notas.</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>O atendente verificou a situação e conseguiu liberar o acesso ao servidor, permitindo que o cliente realizasse a operação.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Tipo de problema: Erro de Sistema.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Tempo gasto: Identificação do problema - 5 minutos; Resolução - 2 minutos.</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>O cliente achou estranho que algumas notas não foram emitidas e mencionou que aguardava uma confirmação sobre o pedido feito.</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Sim, o problema foi resolvido, pois o cliente conseguiu acessar o sistema após a intervenção do atendente.</t>
         </is>
       </c>
     </row>
